--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6480" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="413">
   <si>
     <t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</t>
   </si>
@@ -507,9 +507,6 @@
     <t>이메일 형식이 잘못됨</t>
   </si>
   <si>
-    <t>sign_year</t>
-  </si>
-  <si>
     <t>bookname</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>카트 구매가능 테이블</t>
   </si>
   <si>
-    <t>sign_gender</t>
-  </si>
-  <si>
     <t>도서 세부 페이지</t>
   </si>
   <si>
@@ -669,9 +663,6 @@
     <t>회원가입을 위한 기능</t>
   </si>
   <si>
-    <t>sign_name</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -1057,9 +1048,6 @@
   </si>
   <si>
     <t>결제 수단</t>
-  </si>
-  <si>
-    <t>보유 포인트</t>
   </si>
   <si>
     <t>rent</t>
@@ -1204,9 +1192,6 @@
   </si>
   <si>
     <t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <r>
@@ -1270,6 +1255,95 @@
       </rPr>
       <t>tay_login</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용안함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_pw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_pwChk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_gender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing_agree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_agree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 포인트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1','2'</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원상태(1-정상 / 2-탈퇴)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1734,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +1968,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1903,61 +2034,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,7 +2235,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2152,7 +2244,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2675,7 +2767,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2686,7 +2778,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -2699,41 +2791,41 @@
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2747,164 +2839,164 @@
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -2917,10 +3009,10 @@
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -2933,9 +3025,9 @@
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="64" t="s">
-        <v>280</v>
+      <c r="B19" s="57"/>
+      <c r="C19" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>93</v>
@@ -2951,10 +3043,10 @@
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2967,10 +3059,10 @@
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -2982,8 +3074,8 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="61" t="s">
-        <v>269</v>
+      <c r="B22" s="57" t="s">
+        <v>266</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>100</v>
@@ -3000,9 +3092,9 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>16</v>
@@ -3016,8 +3108,8 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
-        <v>241</v>
+      <c r="B24" s="57" t="s">
+        <v>238</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>12</v>
@@ -3032,7 +3124,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="10" t="s">
         <v>87</v>
       </c>
@@ -3046,7 +3138,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="17" t="s">
         <v>15</v>
       </c>
@@ -3060,11 +3152,11 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="57" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3076,7 +3168,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
@@ -3090,9 +3182,9 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3104,7 +3196,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3214,7 @@
         <v>105</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3163,10 +3255,10 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -3179,7 +3271,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -3193,7 +3285,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -3263,7 +3355,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3291,7 +3383,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -3319,7 +3411,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -3333,7 +3425,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -3391,7 +3483,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -3405,7 +3497,7 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3432,14 +3524,14 @@
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="2:11" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="59" t="s">
         <v>147</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -3450,7 +3542,7 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="68"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="21" t="s">
         <v>110</v>
       </c>
@@ -3466,9 +3558,9 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="68"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>38</v>
@@ -3482,9 +3574,9 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="68"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -3496,9 +3588,9 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="69"/>
+      <c r="B67" s="61"/>
       <c r="C67" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -3510,14 +3602,14 @@
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="62" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -3528,9 +3620,9 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
+      <c r="B69" s="61"/>
       <c r="C69" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>158</v>
@@ -3544,7 +3636,7 @@
       <c r="K69" s="18"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="62" t="s">
         <v>124</v>
       </c>
       <c r="C70" s="21" t="s">
@@ -3562,7 +3654,7 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="69"/>
+      <c r="B71" s="61"/>
       <c r="C71" s="24"/>
       <c r="D71" s="17" t="s">
         <v>10</v>
@@ -3705,7 +3797,7 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>2</v>
@@ -3721,10 +3813,10 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -3740,7 +3832,7 @@
         <v>117</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3769,7 +3861,7 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>21</v>
@@ -3785,7 +3877,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>150</v>
@@ -3801,7 +3893,7 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>95</v>
@@ -3818,7 +3910,7 @@
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
       <c r="C94" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -3845,7 +3937,7 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>8</v>
@@ -3889,7 +3981,7 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>89</v>
@@ -3934,8 +4026,8 @@
       <c r="K101" s="11"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="61" t="s">
-        <v>260</v>
+      <c r="B102" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>90</v>
@@ -3950,7 +4042,7 @@
       <c r="K102" s="11"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="61"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="10" t="s">
         <v>75</v>
       </c>
@@ -3964,8 +4056,8 @@
       <c r="K103" s="11"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="61" t="s">
-        <v>243</v>
+      <c r="B104" s="57" t="s">
+        <v>240</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>43</v>
@@ -3980,7 +4072,7 @@
       <c r="K104" s="11"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="61"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="10" t="s">
         <v>26</v>
       </c>
@@ -4011,17 +4103,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="C15:E16"/>
     <mergeCell ref="C13:E14"/>
@@ -4037,6 +4118,17 @@
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B102:B103"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -4049,8 +4141,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4062,16 +4154,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>70</v>
@@ -4083,7 +4175,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -4096,28 +4188,28 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>395</v>
+      <c r="A6" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>390</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>397</v>
+      <c r="A7" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>392</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -4158,7 +4250,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>63</v>
@@ -4175,15 +4267,15 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B16" s="11"/>
     </row>
@@ -4198,7 +4290,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4212,7 +4304,7 @@
         <v>200</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4225,10 +4317,10 @@
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4242,18 +4334,18 @@
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4261,7 +4353,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4269,7 +4361,7 @@
         <v>115</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4283,7 +4375,7 @@
         <v>200</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4296,10 +4388,10 @@
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4312,7 +4404,7 @@
     </row>
     <row r="35" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>118</v>
@@ -4320,7 +4412,7 @@
     </row>
     <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>62</v>
@@ -4331,7 +4423,7 @@
         <v>132</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4342,58 +4434,58 @@
     </row>
     <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>134</v>
+        <v>261</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>128</v>
+        <v>259</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>155</v>
+      <c r="B41" s="54" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>197</v>
+      <c r="B42" s="54" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>215</v>
+        <v>349</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>161</v>
+      <c r="B44" s="54" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>204</v>
+        <v>271</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4409,28 +4501,28 @@
         <v>144</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>356</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>45</v>
+      <c r="B49" s="54" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>54</v>
@@ -4447,7 +4539,7 @@
         <v>201</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4467,7 +4559,7 @@
     <row r="55" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30"/>
       <c r="B55" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4486,10 +4578,10 @@
     </row>
     <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4501,15 +4593,15 @@
     </row>
     <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>47</v>
@@ -4520,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4531,7 +4623,7 @@
     </row>
     <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>134</v>
@@ -4548,7 +4640,7 @@
         <v>200</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4561,7 +4653,7 @@
     </row>
     <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>36</v>
@@ -4575,18 +4667,18 @@
     </row>
     <row r="72" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4594,7 +4686,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4608,7 +4700,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4622,7 +4714,7 @@
         <v>200</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4635,7 +4727,7 @@
     </row>
     <row r="80" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>53</v>
@@ -4649,15 +4741,15 @@
     </row>
     <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>34</v>
@@ -4668,7 +4760,7 @@
         <v>132</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4679,7 +4771,7 @@
     </row>
     <row r="87" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>128</v>
@@ -4687,7 +4779,7 @@
     </row>
     <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>155</v>
@@ -4712,12 +4804,12 @@
         <v>400</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>71</v>
@@ -4732,7 +4824,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B95" s="32" t="s">
         <v>109</v>
@@ -4740,7 +4832,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>56</v>
@@ -4751,7 +4843,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -4765,7 +4857,7 @@
         <v>143</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -4801,12 +4893,12 @@
         <v>404</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>6</v>
@@ -4822,15 +4914,15 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>76</v>
@@ -4841,7 +4933,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -4852,7 +4944,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>122</v>
@@ -4863,7 +4955,7 @@
         <v>143</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4877,7 +4969,7 @@
         <v>200</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +4983,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="30"/>
       <c r="B117" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,15 +4991,15 @@
         <v>404</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4918,18 +5010,18 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +5029,7 @@
         <v>132</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4948,18 +5040,18 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4973,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4981,12 +5073,12 @@
         <v>404</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>91</v>
@@ -5000,7 +5092,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>44</v>
@@ -5008,7 +5100,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B135" s="11"/>
     </row>
@@ -5017,7 +5109,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5028,10 +5120,10 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="49" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5045,7 +5137,7 @@
         <v>200</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5150,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>96</v>
@@ -5069,15 +5161,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B146" s="11"/>
     </row>
@@ -5086,7 +5178,7 @@
         <v>132</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5097,55 +5189,55 @@
     </row>
     <row r="149" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="46" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="46" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="46" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="49" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>39</v>
@@ -5162,7 +5254,7 @@
         <v>200</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5175,7 +5267,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>84</v>
@@ -5183,7 +5275,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B162" s="32" t="s">
         <v>64</v>
@@ -5191,7 +5283,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B163" s="11"/>
     </row>
@@ -5200,7 +5292,7 @@
         <v>132</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,10 +5303,10 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="46" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,12 +5314,12 @@
         <v>110</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="49" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>57</v>
@@ -5244,7 +5336,7 @@
         <v>200</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5257,7 +5349,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>84</v>
@@ -5265,7 +5357,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B175" s="32" t="s">
         <v>104</v>
@@ -5273,7 +5365,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B176" s="11"/>
     </row>
@@ -5282,7 +5374,7 @@
         <v>132</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5293,7 +5385,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>37</v>
@@ -5301,7 +5393,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>59</v>
@@ -5309,7 +5401,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="49" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>69</v>
@@ -5328,7 +5420,7 @@
         <v>200</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,15 +5428,15 @@
         <v>400</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5357,10 +5449,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5370,70 +5462,72 @@
     <col min="3" max="3" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="75" t="s">
+        <v>394</v>
+      </c>
       <c r="E5" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>114</v>
@@ -5445,18 +5539,18 @@
         <v>102</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>274</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>114</v>
@@ -5468,16 +5562,16 @@
         <v>102</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="35"/>
+        <v>281</v>
+      </c>
+      <c r="F7" s="76"/>
       <c r="G7" s="36" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>114</v>
@@ -5489,18 +5583,16 @@
         <v>102</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>277</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="36" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>114</v>
@@ -5512,11 +5604,11 @@
         <v>102</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5528,14 +5620,14 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -5543,20 +5635,20 @@
         <v>98</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>152</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -5564,13 +5656,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>129</v>
@@ -5585,169 +5677,177 @@
         <v>45</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="75" t="s">
         <v>393</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="F15" s="35"/>
       <c r="G15" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="35"/>
+        <v>253</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>223</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="79" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="77">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="78" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="C21" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>234</v>
+      <c r="E21" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="35"/>
+        <v>290</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="G22" s="36" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>114</v>
@@ -5759,18 +5859,16 @@
         <v>102</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>247</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F23" s="35"/>
       <c r="G23" s="36" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>114</v>
@@ -5779,19 +5877,21 @@
         <v>100</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="F24" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>114</v>
@@ -5800,17 +5900,19 @@
         <v>100</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="F25" s="35" t="s">
+        <v>244</v>
+      </c>
       <c r="G25" s="36" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>114</v>
@@ -5819,653 +5921,653 @@
         <v>100</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="36" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="35">
+        <v>100</v>
+      </c>
       <c r="D27" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>203</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="41" t="s">
+      <c r="C32" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="35"/>
+        <v>252</v>
+      </c>
+      <c r="C34" s="35">
+        <v>100</v>
+      </c>
       <c r="D34" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A35" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D38" s="41" t="s">
+      <c r="D39" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="36" t="s">
         <v>284</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="C41" s="35">
+        <v>100</v>
+      </c>
       <c r="D41" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="40"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" s="41" t="s">
+      <c r="C45" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D45" s="41" t="s">
+      <c r="C46" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C47" s="35"/>
       <c r="D47" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="C48" s="35">
+        <v>100</v>
+      </c>
       <c r="D48" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="40"/>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="A49" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D52" s="41" t="s">
+      <c r="C53" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>349</v>
+      <c r="E53" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="C55" s="35">
+        <v>100</v>
+      </c>
       <c r="D55" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B56" s="35"/>
+        <v>302</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>252</v>
+      </c>
       <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="D56" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="F56" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="40"/>
-    </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
+      <c r="A58" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="40"/>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" s="41" t="s">
+      <c r="C62" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>222</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C65" s="35"/>
       <c r="D65" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F65" s="35"/>
+        <v>281</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>244</v>
+      </c>
       <c r="G65" s="36" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="35">
-        <v>500</v>
+        <v>287</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="F66" s="35"/>
       <c r="G66" s="36" t="s">
-        <v>153</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>114</v>
@@ -6474,125 +6576,121 @@
         <v>500</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="36" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="C68" s="35">
+        <v>500</v>
+      </c>
       <c r="D68" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
       <c r="G68" s="36" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="40"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="A69" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="40"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D72" s="41" t="s">
+      <c r="C73" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D73" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
+      <c r="E73" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="B74" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C74" s="35"/>
       <c r="D74" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>114</v>
@@ -6601,17 +6699,21 @@
         <v>100</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="G75" s="36" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>114</v>
@@ -6620,17 +6722,17 @@
         <v>100</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
       <c r="G76" s="36" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B77" s="35" t="s">
         <v>114</v>
@@ -6639,17 +6741,17 @@
         <v>100</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
       <c r="G77" s="36" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>114</v>
@@ -6658,17 +6760,17 @@
         <v>100</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="36" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B79" s="35" t="s">
         <v>114</v>
@@ -6677,17 +6779,17 @@
         <v>100</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
       <c r="G79" s="36" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>114</v>
@@ -6696,110 +6798,106 @@
         <v>100</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E80" s="35"/>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="35"/>
+      <c r="G80" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="G80" s="36" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="40"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="A81" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="35">
+        <v>100</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="40"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B84" s="41" t="s">
+      <c r="A84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D84" s="41" t="s">
+      <c r="C85" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G84" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G85" s="36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C86" s="35"/>
       <c r="D86" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F86" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>114</v>
@@ -6808,17 +6906,21 @@
         <v>100</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="G87" s="36" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>114</v>
@@ -6827,17 +6929,17 @@
         <v>100</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
       <c r="G88" s="36" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B89" s="35" t="s">
         <v>114</v>
@@ -6846,17 +6948,17 @@
         <v>100</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
       <c r="G89" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>114</v>
@@ -6865,17 +6967,17 @@
         <v>100</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
       <c r="G90" s="36" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>114</v>
@@ -6884,17 +6986,17 @@
         <v>100</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="36" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>114</v>
@@ -6903,130 +7005,140 @@
         <v>100</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E92" s="35"/>
-      <c r="F92" s="35" t="s">
+      <c r="F92" s="35"/>
+      <c r="G92" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="G92" s="36" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="40"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="A93" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="35">
+        <v>100</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G93" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="B95" s="2" t="s">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="40"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B96" s="41" t="s">
+      <c r="C96" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="41" t="s">
+      <c r="C97" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E96" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F96" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G96" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G97" s="36" t="s">
-        <v>363</v>
+      <c r="E97" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C98" s="35"/>
       <c r="D98" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="35" t="s">
-        <v>284</v>
-      </c>
+      <c r="E98" s="35"/>
       <c r="F98" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C99" s="35"/>
       <c r="D99" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
+      <c r="E99" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>244</v>
+      </c>
       <c r="G99" s="36" t="s">
-        <v>361</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
+      <c r="A100" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="35">
+        <v>100</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>102</v>
+      </c>
       <c r="E100" s="35"/>
       <c r="F100" s="35"/>
-      <c r="G100" s="36"/>
+      <c r="G100" s="36" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="35"/>
@@ -7065,223 +7177,213 @@
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="36"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="40"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B106" s="38"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="40"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B108" s="41" t="s">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C108" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D108" s="41" t="s">
+      <c r="C109" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E108" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F108" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G108" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G109" s="36" t="s">
-        <v>310</v>
+      <c r="E109" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F109" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C110" s="35"/>
       <c r="D110" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="35" t="s">
-        <v>284</v>
-      </c>
+      <c r="E110" s="35"/>
       <c r="F110" s="35" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C111" s="35"/>
+        <v>252</v>
+      </c>
+      <c r="C111" s="35">
+        <v>100</v>
+      </c>
       <c r="D111" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
-      <c r="B112" s="35"/>
+      <c r="A112" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>252</v>
+      </c>
       <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="36"/>
+      <c r="D112" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="36" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="40"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="36"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="40"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B116" s="41" t="s">
+      <c r="A116" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C116" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D116" s="41" t="s">
+      <c r="C117" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D117" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E116" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F116" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G116" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="B118" s="35" t="s">
-        <v>255</v>
-      </c>
+      <c r="E117" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="35"/>
-      <c r="D118" s="35" t="s">
-        <v>102</v>
-      </c>
+      <c r="D118" s="35"/>
       <c r="E118" s="35"/>
-      <c r="F118" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>235</v>
-      </c>
+      <c r="F118" s="35"/>
+      <c r="G118" s="36"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="35" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C119" s="35">
-        <v>100</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C119" s="35"/>
       <c r="D119" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
+      <c r="F119" s="35" t="s">
+        <v>244</v>
+      </c>
       <c r="G119" s="36" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B120" s="35" t="s">
         <v>114</v>
@@ -7289,16 +7391,18 @@
       <c r="C120" s="35">
         <v>100</v>
       </c>
-      <c r="D120" s="35"/>
+      <c r="D120" s="35" t="s">
+        <v>102</v>
+      </c>
       <c r="E120" s="35"/>
       <c r="F120" s="35"/>
       <c r="G120" s="36" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="B121" s="35" t="s">
         <v>114</v>
@@ -7310,64 +7414,72 @@
       <c r="E121" s="35"/>
       <c r="F121" s="35"/>
       <c r="G121" s="36" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="40"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="A122" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="35">
+        <v>100</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="40"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B125" s="41" t="s">
+      <c r="A125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C125" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D125" s="41" t="s">
+      <c r="C126" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E125" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G125" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="35"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="36"/>
+      <c r="E126" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F126" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="35"/>
@@ -7406,187 +7518,187 @@
       <c r="G130" s="36"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="36"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B131" s="38"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="40"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="B132" s="38"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="40"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B134" s="41" t="s">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D134" s="41" t="s">
+      <c r="C135" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E134" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F134" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G134" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="35"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="36"/>
+      <c r="E135" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F135" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="35" t="s">
-        <v>294</v>
-      </c>
+      <c r="A136" s="35"/>
       <c r="B136" s="35"/>
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35"/>
-      <c r="F136" s="35" t="s">
-        <v>247</v>
-      </c>
+      <c r="F136" s="35"/>
       <c r="G136" s="36"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="B137" s="35"/>
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35"/>
       <c r="F137" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G137" s="36"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="36" t="s">
-        <v>140</v>
-      </c>
+      <c r="F138" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G138" s="36"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="35"/>
+      <c r="A139" s="35" t="s">
+        <v>187</v>
+      </c>
       <c r="B139" s="35"/>
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35"/>
       <c r="F139" s="35"/>
-      <c r="G139" s="36"/>
+      <c r="G139" s="36" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="38"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="40"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="40"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="B143" s="41" t="s">
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D143" s="41" t="s">
+      <c r="C144" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D144" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E143" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F143" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G143" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="B144" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35" t="s">
+      <c r="E144" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F144" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G144" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E144" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F144" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G144" s="36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="51"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="36"/>
+      <c r="E145" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F145" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G145" s="36" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="51"/>
@@ -7607,27 +7719,39 @@
       <c r="G147" s="36"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="52"/>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="40"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="36"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="38"/>
+      <c r="G149" s="40"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6480" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6480" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="분석" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="414">
   <si>
     <t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</t>
   </si>
@@ -1344,6 +1344,30 @@
   </si>
   <si>
     <t>회원상태(1-정상 / 2-탈퇴)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>elete_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>pwChk</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1980,15 +2004,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,59 +2073,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2791,41 +2815,41 @@
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2839,160 +2863,160 @@
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="70" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="73" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -3009,8 +3033,8 @@
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="17" t="s">
         <v>364</v>
       </c>
@@ -3025,8 +3049,8 @@
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="73" t="s">
         <v>277</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -3043,8 +3067,8 @@
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="10" t="s">
         <v>370</v>
       </c>
@@ -3059,8 +3083,8 @@
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="17" t="s">
         <v>367</v>
       </c>
@@ -3074,7 +3098,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3092,7 +3116,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="17" t="s">
         <v>332</v>
       </c>
@@ -3108,7 +3132,7 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="66" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3124,7 +3148,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="10" t="s">
         <v>87</v>
       </c>
@@ -3138,7 +3162,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="17" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3176,7 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3168,7 +3192,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3206,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="10" t="s">
         <v>386</v>
       </c>
@@ -3196,7 +3220,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
@@ -3524,7 +3548,7 @@
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="2:11" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="65" t="s">
         <v>147</v>
       </c>
       <c r="C63" s="28" t="s">
@@ -3542,7 +3566,7 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="60"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="21" t="s">
         <v>110</v>
       </c>
@@ -3558,7 +3582,7 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="60"/>
+      <c r="B65" s="77"/>
       <c r="C65" s="21" t="s">
         <v>258</v>
       </c>
@@ -3574,7 +3598,7 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="60"/>
+      <c r="B66" s="77"/>
       <c r="C66" s="21" t="s">
         <v>248</v>
       </c>
@@ -3588,7 +3612,7 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="61"/>
+      <c r="B67" s="78"/>
       <c r="C67" s="24" t="s">
         <v>264</v>
       </c>
@@ -3602,7 +3626,7 @@
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="79" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -3620,7 +3644,7 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="61"/>
+      <c r="B69" s="78"/>
       <c r="C69" s="24" t="s">
         <v>271</v>
       </c>
@@ -3636,7 +3660,7 @@
       <c r="K69" s="18"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="79" t="s">
         <v>124</v>
       </c>
       <c r="C70" s="21" t="s">
@@ -3654,7 +3678,7 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="61"/>
+      <c r="B71" s="78"/>
       <c r="C71" s="24"/>
       <c r="D71" s="17" t="s">
         <v>10</v>
@@ -4026,7 +4050,7 @@
       <c r="K101" s="11"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="57" t="s">
+      <c r="B102" s="66" t="s">
         <v>257</v>
       </c>
       <c r="C102" s="10" t="s">
@@ -4042,7 +4066,7 @@
       <c r="K102" s="11"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="57"/>
+      <c r="B103" s="66"/>
       <c r="C103" s="10" t="s">
         <v>75</v>
       </c>
@@ -4056,7 +4080,7 @@
       <c r="K103" s="11"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="66" t="s">
         <v>240</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -4072,7 +4096,7 @@
       <c r="K104" s="11"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="57"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="10" t="s">
         <v>26</v>
       </c>
@@ -4103,6 +4127,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="C15:E16"/>
     <mergeCell ref="C13:E14"/>
@@ -4118,17 +4153,6 @@
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B102:B103"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -4141,8 +4165,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5313,8 +5337,8 @@
       <c r="A167" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>300</v>
+      <c r="B167" s="54" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5451,7 +5475,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -5512,7 +5536,7 @@
         <v>252</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="57" t="s">
         <v>394</v>
       </c>
       <c r="E5" s="35" t="s">
@@ -5541,7 +5565,7 @@
       <c r="E6" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="80" t="s">
         <v>274</v>
       </c>
       <c r="G6" s="36" t="s">
@@ -5564,7 +5588,7 @@
       <c r="E7" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="36" t="s">
         <v>248</v>
       </c>
@@ -5697,7 +5721,7 @@
       <c r="A14" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="57" t="s">
         <v>393</v>
       </c>
       <c r="C14" s="37"/>
@@ -5751,42 +5775,42 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="57" t="s">
         <v>405</v>
       </c>
       <c r="C17" s="37"/>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="57" t="s">
         <v>406</v>
       </c>
       <c r="E17" s="35">
         <v>0</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="60" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="58">
         <v>1</v>
       </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="59" t="s">
         <v>412</v>
       </c>
     </row>

--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -22,9 +22,1210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="402">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="401">
+  <x:si>
+    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱 푸시 수신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wish_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예)1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1','2'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/serch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이/설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 구독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 수단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표저서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 검색한 기록 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작가 / 번역가 / 출판사 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 하단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원상태(1-정상 / 2-탈퇴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw 와 pwchk 가 같지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일하지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입
+로그인
+캐쉬충전
+내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디(5~20자 영문,숫자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 : rdbooks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 상단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/find/password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3,4,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성인검색표시 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 페이지 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>terms_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 수집 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 성인 제외 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buyprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형식이 잘못된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rentprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택정보 제공동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 대여가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재입력 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>translator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>signup_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보가 없는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wishlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 확인 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 변경 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 세부 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 고유 식별번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 로그인 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 구매가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 고유 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도(4자리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email_subs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남 / 녀 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입된 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>all_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 형식이 잘못됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 결과 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>P</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>W</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>국적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코멘트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
   <x:si>
     <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인을 하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>privacy_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 나중에 시간나면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수 동의가 선택되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별점 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 / 대여 금액 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/find/id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호랑 동일하게 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>introduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 형식에 맞지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 간단하게 구현해볼 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notifucation_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>night_appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 비밀번호와 다름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_methods</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 - 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>select_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 하지 않은 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y','N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야간 앱 푸시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이리디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 표지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M','F'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명 :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 캐쉬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 실패</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PWChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약관동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마케팅동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미리보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -40,998 +1241,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 검색한 기록 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일하지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작가 / 번역가 / 출판사 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 하단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원상태(1-정상 / 2-탈퇴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw 와 pwchk 가 같지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(5~20자 영문,숫자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 : rdbooks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입
-로그인
-캐쉬충전
-내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 상단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>all_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입된 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남 / 녀 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 형식이 잘못됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email_subs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 결과 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 확인 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 변경 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도(4자리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 구매가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 로그인 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 세부 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 고유 식별번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>memberinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 고유 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>terms_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 수집 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2,3,4,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 페이지 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성인검색표시 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 성인 제외 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buyprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보가 없는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형식이 잘못된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rentprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재입력 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>signup_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택정보 제공동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 대여가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wishlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>translator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/find/password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인을 하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marketing_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>privacy_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 형식에 맞지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/find/id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수 동의가 선택되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_methods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 - 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 간단하게 구현해볼 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호랑 동일하게 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>night_appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notifucation_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 / 대여 금액 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별점 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>introduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 비밀번호와 다름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>select_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 하지 않은 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 나중에 시간나면 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PWChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마케팅동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약관동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미리보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YEAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이리디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 표지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y','N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M','F'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야간 앱 푸시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 캐쉬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adult</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>book_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 실패</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대표저서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 푸시 수신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wish_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예)1999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gread</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/serch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이/설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 구독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 수단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>author</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1','2'</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>sign_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_gender</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t>로그인 상태</x:t>
     </x:r>
@@ -1046,6 +1255,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>s</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>tay_login</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>l</x:t>
     </x:r>
     <x:r>
@@ -1056,233 +1278,6 @@
       </x:rPr>
       <x:t>ogin_pw</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>tay_login</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코멘트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>P</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>W</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2218,6 +2213,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -2382,9 +2380,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2419,7 +2414,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2440,7 +2434,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2461,7 +2454,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2492,7 +2484,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2523,7 +2514,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2601,7 +2591,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2636,7 +2625,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2671,7 +2659,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2716,7 +2703,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2760,7 +2746,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2852,7 +2837,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3353,7 +3338,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:4">
@@ -3361,10 +3346,10 @@
     </x:row>
     <x:row r="4" spans="2:11">
       <x:c r="B4" s="23" t="s">
-        <x:v>201</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
@@ -3377,41 +3362,41 @@
     </x:row>
     <x:row r="5" spans="1:12" s="5" customFormat="1">
       <x:c r="A5" s="3"/>
-      <x:c r="B5" s="64" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="C5" s="77" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="78"/>
-      <x:c r="E5" s="78"/>
-      <x:c r="F5" s="78"/>
-      <x:c r="G5" s="78"/>
-      <x:c r="H5" s="78"/>
-      <x:c r="I5" s="78"/>
-      <x:c r="J5" s="78"/>
-      <x:c r="K5" s="79"/>
+      <x:c r="B5" s="65" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C5" s="78" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="79"/>
+      <x:c r="E5" s="79"/>
+      <x:c r="F5" s="79"/>
+      <x:c r="G5" s="79"/>
+      <x:c r="H5" s="79"/>
+      <x:c r="I5" s="79"/>
+      <x:c r="J5" s="79"/>
+      <x:c r="K5" s="80"/>
       <x:c r="L5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:12" s="5" customFormat="1">
       <x:c r="A6" s="3"/>
-      <x:c r="B6" s="62"/>
-      <x:c r="C6" s="75" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="D6" s="75"/>
-      <x:c r="E6" s="75"/>
-      <x:c r="F6" s="75"/>
-      <x:c r="G6" s="75"/>
-      <x:c r="H6" s="75"/>
-      <x:c r="I6" s="75"/>
-      <x:c r="J6" s="75"/>
-      <x:c r="K6" s="76"/>
+      <x:c r="B6" s="63"/>
+      <x:c r="C6" s="76" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="D6" s="76"/>
+      <x:c r="E6" s="76"/>
+      <x:c r="F6" s="76"/>
+      <x:c r="G6" s="76"/>
+      <x:c r="H6" s="76"/>
+      <x:c r="I6" s="76"/>
+      <x:c r="J6" s="76"/>
+      <x:c r="K6" s="77"/>
       <x:c r="L6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:12" s="5" customFormat="1">
       <x:c r="A7" s="3"/>
-      <x:c r="B7" s="69"/>
+      <x:c r="B7" s="70"/>
       <x:c r="C7" s="17"/>
       <x:c r="D7" s="17"/>
       <x:c r="E7" s="17"/>
@@ -3425,164 +3410,164 @@
     </x:row>
     <x:row r="8" spans="1:12" s="5" customFormat="1">
       <x:c r="A8" s="3"/>
-      <x:c r="B8" s="62" t="s">
-        <x:v>382</x:v>
-      </x:c>
-      <x:c r="C8" s="75" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D8" s="75"/>
-      <x:c r="E8" s="75"/>
-      <x:c r="F8" s="75"/>
-      <x:c r="G8" s="75"/>
-      <x:c r="H8" s="75"/>
-      <x:c r="I8" s="75"/>
-      <x:c r="J8" s="75"/>
-      <x:c r="K8" s="76"/>
+      <x:c r="B8" s="63" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C8" s="76" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D8" s="76"/>
+      <x:c r="E8" s="76"/>
+      <x:c r="F8" s="76"/>
+      <x:c r="G8" s="76"/>
+      <x:c r="H8" s="76"/>
+      <x:c r="I8" s="76"/>
+      <x:c r="J8" s="76"/>
+      <x:c r="K8" s="77"/>
       <x:c r="L8" s="3"/>
     </x:row>
     <x:row r="9" spans="1:12" s="5" customFormat="1">
       <x:c r="A9" s="3"/>
-      <x:c r="B9" s="62"/>
-      <x:c r="C9" s="75" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="75"/>
-      <x:c r="E9" s="75"/>
-      <x:c r="F9" s="75"/>
-      <x:c r="G9" s="75"/>
-      <x:c r="H9" s="75"/>
-      <x:c r="I9" s="75"/>
-      <x:c r="J9" s="75"/>
-      <x:c r="K9" s="76"/>
+      <x:c r="B9" s="63"/>
+      <x:c r="C9" s="76" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="76"/>
+      <x:c r="E9" s="76"/>
+      <x:c r="F9" s="76"/>
+      <x:c r="G9" s="76"/>
+      <x:c r="H9" s="76"/>
+      <x:c r="I9" s="76"/>
+      <x:c r="J9" s="76"/>
+      <x:c r="K9" s="77"/>
       <x:c r="L9" s="3"/>
     </x:row>
     <x:row r="10" spans="1:12" s="5" customFormat="1">
       <x:c r="A10" s="3"/>
-      <x:c r="B10" s="62"/>
-      <x:c r="C10" s="75" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="D10" s="75"/>
-      <x:c r="E10" s="75"/>
-      <x:c r="F10" s="75"/>
-      <x:c r="G10" s="75"/>
-      <x:c r="H10" s="75"/>
-      <x:c r="I10" s="75"/>
-      <x:c r="J10" s="75"/>
-      <x:c r="K10" s="76"/>
+      <x:c r="B10" s="63"/>
+      <x:c r="C10" s="76" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D10" s="76"/>
+      <x:c r="E10" s="76"/>
+      <x:c r="F10" s="76"/>
+      <x:c r="G10" s="76"/>
+      <x:c r="H10" s="76"/>
+      <x:c r="I10" s="76"/>
+      <x:c r="J10" s="76"/>
+      <x:c r="K10" s="77"/>
       <x:c r="L10" s="3"/>
     </x:row>
     <x:row r="11" spans="1:12" s="5" customFormat="1">
       <x:c r="A11" s="3"/>
-      <x:c r="B11" s="62"/>
-      <x:c r="C11" s="75" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D11" s="75"/>
-      <x:c r="E11" s="75"/>
-      <x:c r="F11" s="75"/>
-      <x:c r="G11" s="75"/>
-      <x:c r="H11" s="75"/>
-      <x:c r="I11" s="75"/>
-      <x:c r="J11" s="75"/>
-      <x:c r="K11" s="76"/>
+      <x:c r="B11" s="63"/>
+      <x:c r="C11" s="76" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D11" s="76"/>
+      <x:c r="E11" s="76"/>
+      <x:c r="F11" s="76"/>
+      <x:c r="G11" s="76"/>
+      <x:c r="H11" s="76"/>
+      <x:c r="I11" s="76"/>
+      <x:c r="J11" s="76"/>
+      <x:c r="K11" s="77"/>
       <x:c r="L11" s="3"/>
     </x:row>
     <x:row r="12" spans="1:12" s="5" customFormat="1">
       <x:c r="A12" s="3"/>
-      <x:c r="B12" s="62"/>
-      <x:c r="C12" s="75" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D12" s="75"/>
-      <x:c r="E12" s="75"/>
-      <x:c r="F12" s="75"/>
-      <x:c r="G12" s="75"/>
-      <x:c r="H12" s="75"/>
-      <x:c r="I12" s="75"/>
-      <x:c r="J12" s="75"/>
-      <x:c r="K12" s="76"/>
+      <x:c r="B12" s="63"/>
+      <x:c r="C12" s="76" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D12" s="76"/>
+      <x:c r="E12" s="76"/>
+      <x:c r="F12" s="76"/>
+      <x:c r="G12" s="76"/>
+      <x:c r="H12" s="76"/>
+      <x:c r="I12" s="76"/>
+      <x:c r="J12" s="76"/>
+      <x:c r="K12" s="77"/>
       <x:c r="L12" s="3"/>
     </x:row>
     <x:row r="13" spans="1:12" s="5" customFormat="1">
       <x:c r="A13" s="3"/>
-      <x:c r="B13" s="62"/>
-      <x:c r="C13" s="75" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D13" s="75"/>
-      <x:c r="E13" s="75"/>
-      <x:c r="F13" s="75" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G13" s="75"/>
-      <x:c r="H13" s="75"/>
-      <x:c r="I13" s="75"/>
-      <x:c r="J13" s="75"/>
-      <x:c r="K13" s="76"/>
+      <x:c r="B13" s="63"/>
+      <x:c r="C13" s="76" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D13" s="76"/>
+      <x:c r="E13" s="76"/>
+      <x:c r="F13" s="76" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G13" s="76"/>
+      <x:c r="H13" s="76"/>
+      <x:c r="I13" s="76"/>
+      <x:c r="J13" s="76"/>
+      <x:c r="K13" s="77"/>
       <x:c r="L13" s="3"/>
     </x:row>
     <x:row r="14" spans="1:12" s="5" customFormat="1">
       <x:c r="A14" s="3"/>
-      <x:c r="B14" s="62"/>
-      <x:c r="C14" s="75"/>
-      <x:c r="D14" s="75"/>
-      <x:c r="E14" s="75"/>
-      <x:c r="F14" s="75" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="G14" s="75"/>
-      <x:c r="H14" s="75"/>
-      <x:c r="I14" s="75"/>
-      <x:c r="J14" s="75"/>
-      <x:c r="K14" s="76"/>
+      <x:c r="B14" s="63"/>
+      <x:c r="C14" s="76"/>
+      <x:c r="D14" s="76"/>
+      <x:c r="E14" s="76"/>
+      <x:c r="F14" s="76" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="G14" s="76"/>
+      <x:c r="H14" s="76"/>
+      <x:c r="I14" s="76"/>
+      <x:c r="J14" s="76"/>
+      <x:c r="K14" s="77"/>
       <x:c r="L14" s="3"/>
     </x:row>
     <x:row r="15" spans="1:12" s="5" customFormat="1">
       <x:c r="A15" s="3"/>
-      <x:c r="B15" s="62"/>
-      <x:c r="C15" s="75" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D15" s="75"/>
-      <x:c r="E15" s="75"/>
-      <x:c r="F15" s="75" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="G15" s="75"/>
-      <x:c r="H15" s="75"/>
-      <x:c r="I15" s="75"/>
-      <x:c r="J15" s="75"/>
-      <x:c r="K15" s="76"/>
+      <x:c r="B15" s="63"/>
+      <x:c r="C15" s="76" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D15" s="76"/>
+      <x:c r="E15" s="76"/>
+      <x:c r="F15" s="76" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G15" s="76"/>
+      <x:c r="H15" s="76"/>
+      <x:c r="I15" s="76"/>
+      <x:c r="J15" s="76"/>
+      <x:c r="K15" s="77"/>
       <x:c r="L15" s="3"/>
     </x:row>
     <x:row r="16" spans="1:12" s="5" customFormat="1">
       <x:c r="A16" s="3"/>
-      <x:c r="B16" s="69"/>
-      <x:c r="C16" s="73"/>
-      <x:c r="D16" s="73"/>
-      <x:c r="E16" s="73"/>
-      <x:c r="F16" s="73" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G16" s="73"/>
-      <x:c r="H16" s="73"/>
-      <x:c r="I16" s="73"/>
-      <x:c r="J16" s="73"/>
-      <x:c r="K16" s="74"/>
+      <x:c r="B16" s="70"/>
+      <x:c r="C16" s="74"/>
+      <x:c r="D16" s="74"/>
+      <x:c r="E16" s="74"/>
+      <x:c r="F16" s="74" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G16" s="74"/>
+      <x:c r="H16" s="74"/>
+      <x:c r="I16" s="74"/>
+      <x:c r="J16" s="74"/>
+      <x:c r="K16" s="75"/>
       <x:c r="L16" s="3"/>
     </x:row>
     <x:row r="17" spans="1:12" s="5" customFormat="1">
       <x:c r="A17" s="3"/>
-      <x:c r="B17" s="68" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C17" s="70" t="s">
-        <x:v>248</x:v>
+      <x:c r="B17" s="69" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C17" s="71" t="s">
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E17" s="19"/>
       <x:c r="F17" s="19"/>
@@ -3595,10 +3580,10 @@
     </x:row>
     <x:row r="18" spans="1:12" s="5" customFormat="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="62"/>
-      <x:c r="C18" s="71"/>
+      <x:c r="B18" s="63"/>
+      <x:c r="C18" s="72"/>
       <x:c r="D18" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E18" s="17"/>
       <x:c r="F18" s="17"/>
@@ -3611,12 +3596,12 @@
     </x:row>
     <x:row r="19" spans="1:12" s="5" customFormat="1">
       <x:c r="A19" s="3"/>
-      <x:c r="B19" s="62"/>
-      <x:c r="C19" s="70" t="s">
-        <x:v>386</x:v>
+      <x:c r="B19" s="63"/>
+      <x:c r="C19" s="71" t="s">
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>344</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E19" s="19"/>
       <x:c r="F19" s="19"/>
@@ -3629,10 +3614,10 @@
     </x:row>
     <x:row r="20" spans="1:12" s="5" customFormat="1">
       <x:c r="A20" s="3"/>
-      <x:c r="B20" s="62"/>
-      <x:c r="C20" s="72"/>
+      <x:c r="B20" s="63"/>
+      <x:c r="C20" s="73"/>
       <x:c r="D20" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E20" s="10"/>
       <x:c r="F20" s="10"/>
@@ -3645,10 +3630,10 @@
     </x:row>
     <x:row r="21" spans="1:12" s="5" customFormat="1">
       <x:c r="A21" s="3"/>
-      <x:c r="B21" s="69"/>
-      <x:c r="C21" s="71"/>
+      <x:c r="B21" s="70"/>
+      <x:c r="C21" s="72"/>
       <x:c r="D21" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E21" s="17"/>
       <x:c r="F21" s="17"/>
@@ -3660,14 +3645,14 @@
       <x:c r="L21" s="3"/>
     </x:row>
     <x:row r="22" spans="2:11">
-      <x:c r="B22" s="62" t="s">
-        <x:v>375</x:v>
+      <x:c r="B22" s="63" t="s">
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C22" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>338</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E22" s="10"/>
       <x:c r="F22" s="10"/>
@@ -3678,12 +3663,12 @@
       <x:c r="K22" s="11"/>
     </x:row>
     <x:row r="23" spans="2:11">
-      <x:c r="B23" s="69"/>
+      <x:c r="B23" s="70"/>
       <x:c r="C23" s="17" t="s">
-        <x:v>286</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="17"/>
       <x:c r="F23" s="17"/>
@@ -3694,11 +3679,11 @@
       <x:c r="K23" s="18"/>
     </x:row>
     <x:row r="24" spans="2:11" ht="17.100000000000001" customHeight="1">
-      <x:c r="B24" s="62" t="s">
-        <x:v>391</x:v>
+      <x:c r="B24" s="63" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C24" s="10" t="s">
-        <x:v>137</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D24" s="10"/>
       <x:c r="E24" s="10"/>
@@ -3710,9 +3695,9 @@
       <x:c r="K24" s="11"/>
     </x:row>
     <x:row r="25" spans="2:11">
-      <x:c r="B25" s="62"/>
+      <x:c r="B25" s="63"/>
       <x:c r="C25" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="10"/>
       <x:c r="E25" s="10"/>
@@ -3724,9 +3709,9 @@
       <x:c r="K25" s="11"/>
     </x:row>
     <x:row r="26" spans="2:11">
-      <x:c r="B26" s="69"/>
+      <x:c r="B26" s="70"/>
       <x:c r="C26" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="17"/>
       <x:c r="E26" s="17"/>
@@ -3738,11 +3723,11 @@
       <x:c r="K26" s="18"/>
     </x:row>
     <x:row r="27" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B27" s="62" t="s">
-        <x:v>233</x:v>
+      <x:c r="B27" s="63" t="s">
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C27" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D27" s="10"/>
       <x:c r="E27" s="10"/>
@@ -3754,9 +3739,9 @@
       <x:c r="K27" s="11"/>
     </x:row>
     <x:row r="28" spans="2:11">
-      <x:c r="B28" s="62"/>
+      <x:c r="B28" s="63"/>
       <x:c r="C28" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D28" s="10"/>
       <x:c r="E28" s="10"/>
@@ -3768,9 +3753,9 @@
       <x:c r="K28" s="11"/>
     </x:row>
     <x:row r="29" spans="2:11">
-      <x:c r="B29" s="62"/>
+      <x:c r="B29" s="63"/>
       <x:c r="C29" s="10" t="s">
-        <x:v>401</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D29" s="10"/>
       <x:c r="E29" s="10"/>
@@ -3782,9 +3767,9 @@
       <x:c r="K29" s="11"/>
     </x:row>
     <x:row r="30" spans="2:11">
-      <x:c r="B30" s="63"/>
+      <x:c r="B30" s="64"/>
       <x:c r="C30" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D30" s="13"/>
       <x:c r="E30" s="13"/>
@@ -3797,10 +3782,10 @@
     </x:row>
     <x:row r="33" spans="2:11">
       <x:c r="B33" s="23" t="s">
-        <x:v>203</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C33" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D33" s="16"/>
       <x:c r="E33" s="16"/>
@@ -3813,7 +3798,7 @@
     </x:row>
     <x:row r="34" spans="2:11">
       <x:c r="B34" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C34" s="16"/>
       <x:c r="D34" s="16"/>
@@ -3827,7 +3812,7 @@
     </x:row>
     <x:row r="35" spans="2:11">
       <x:c r="B35" s="12" t="s">
-        <x:v>336</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C35" s="13"/>
       <x:c r="D35" s="13"/>
@@ -3841,10 +3826,10 @@
     </x:row>
     <x:row r="38" spans="2:11">
       <x:c r="B38" s="23" t="s">
-        <x:v>386</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C38" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D38" s="16"/>
       <x:c r="E38" s="16"/>
@@ -3857,7 +3842,7 @@
     </x:row>
     <x:row r="39" spans="2:11">
       <x:c r="B39" s="7" t="s">
-        <x:v>300</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C39" s="16"/>
       <x:c r="D39" s="16"/>
@@ -3871,7 +3856,7 @@
     </x:row>
     <x:row r="40" spans="2:11">
       <x:c r="B40" s="9" t="s">
-        <x:v>310</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C40" s="10"/>
       <x:c r="D40" s="10"/>
@@ -3885,7 +3870,7 @@
     </x:row>
     <x:row r="41" spans="2:11">
       <x:c r="B41" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C41" s="10"/>
       <x:c r="D41" s="10"/>
@@ -3899,7 +3884,7 @@
     </x:row>
     <x:row r="42" spans="2:11">
       <x:c r="B42" s="9" t="s">
-        <x:v>145</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C42" s="10"/>
       <x:c r="D42" s="10"/>
@@ -3913,7 +3898,7 @@
     </x:row>
     <x:row r="43" spans="2:11">
       <x:c r="B43" s="9" t="s">
-        <x:v>134</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C43" s="10"/>
       <x:c r="D43" s="10"/>
@@ -3927,7 +3912,7 @@
     </x:row>
     <x:row r="44" spans="2:11">
       <x:c r="B44" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C44" s="10"/>
       <x:c r="D44" s="10"/>
@@ -3941,7 +3926,7 @@
     </x:row>
     <x:row r="45" spans="2:11">
       <x:c r="B45" s="12" t="s">
-        <x:v>37</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C45" s="13"/>
       <x:c r="D45" s="13"/>
@@ -3955,7 +3940,7 @@
     </x:row>
     <x:row r="47" spans="2:11">
       <x:c r="B47" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C47" s="16"/>
       <x:c r="D47" s="16"/>
@@ -3969,7 +3954,7 @@
     </x:row>
     <x:row r="48" spans="2:11">
       <x:c r="B48" s="9" t="s">
-        <x:v>400</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C48" s="10"/>
       <x:c r="D48" s="10"/>
@@ -3983,7 +3968,7 @@
     </x:row>
     <x:row r="49" spans="2:11">
       <x:c r="B49" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C49" s="13"/>
       <x:c r="D49" s="13"/>
@@ -3997,7 +3982,7 @@
     </x:row>
     <x:row r="51" spans="2:11">
       <x:c r="B51" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C51" s="16"/>
       <x:c r="D51" s="16"/>
@@ -4011,7 +3996,7 @@
     </x:row>
     <x:row r="52" spans="2:11">
       <x:c r="B52" s="9" t="s">
-        <x:v>398</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C52" s="10"/>
       <x:c r="D52" s="10"/>
@@ -4025,7 +4010,7 @@
     </x:row>
     <x:row r="53" spans="2:11">
       <x:c r="B53" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C53" s="13"/>
       <x:c r="D53" s="13"/>
@@ -4039,10 +4024,10 @@
     </x:row>
     <x:row r="56" spans="2:11">
       <x:c r="B56" s="23" t="s">
-        <x:v>206</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C56" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D56" s="16"/>
       <x:c r="E56" s="16"/>
@@ -4055,7 +4040,7 @@
     </x:row>
     <x:row r="57" spans="2:11">
       <x:c r="B57" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C57" s="16"/>
       <x:c r="D57" s="16"/>
@@ -4069,7 +4054,7 @@
     </x:row>
     <x:row r="58" spans="2:11">
       <x:c r="B58" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C58" s="10"/>
       <x:c r="D58" s="10"/>
@@ -4083,7 +4068,7 @@
     </x:row>
     <x:row r="59" spans="2:11">
       <x:c r="B59" s="12" t="s">
-        <x:v>399</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C59" s="13"/>
       <x:c r="D59" s="13"/>
@@ -4097,7 +4082,7 @@
     </x:row>
     <x:row r="62" spans="2:11">
       <x:c r="B62" s="25" t="s">
-        <x:v>229</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C62" s="26"/>
       <x:c r="D62" s="26"/>
@@ -4110,14 +4095,14 @@
       <x:c r="K62" s="15"/>
     </x:row>
     <x:row r="63" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B63" s="64" t="s">
-        <x:v>258</x:v>
+      <x:c r="B63" s="65" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C63" s="28" t="s">
-        <x:v>373</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D63" s="16" t="s">
-        <x:v>45</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E63" s="16"/>
       <x:c r="F63" s="16"/>
@@ -4128,12 +4113,12 @@
       <x:c r="K63" s="8"/>
     </x:row>
     <x:row r="64" spans="2:11">
-      <x:c r="B64" s="65"/>
+      <x:c r="B64" s="66"/>
       <x:c r="C64" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E64" s="10"/>
       <x:c r="F64" s="10"/>
@@ -4144,12 +4129,12 @@
       <x:c r="K64" s="11"/>
     </x:row>
     <x:row r="65" spans="2:11">
-      <x:c r="B65" s="65"/>
+      <x:c r="B65" s="66"/>
       <x:c r="C65" s="21" t="s">
-        <x:v>348</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D65" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E65" s="10"/>
       <x:c r="F65" s="10"/>
@@ -4160,9 +4145,9 @@
       <x:c r="K65" s="11"/>
     </x:row>
     <x:row r="66" spans="2:11">
-      <x:c r="B66" s="65"/>
+      <x:c r="B66" s="66"/>
       <x:c r="C66" s="21" t="s">
-        <x:v>351</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D66" s="10"/>
       <x:c r="E66" s="10"/>
@@ -4174,9 +4159,9 @@
       <x:c r="K66" s="11"/>
     </x:row>
     <x:row r="67" spans="2:11">
-      <x:c r="B67" s="66"/>
+      <x:c r="B67" s="67"/>
       <x:c r="C67" s="24" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D67" s="17"/>
       <x:c r="E67" s="17"/>
@@ -4188,14 +4173,14 @@
       <x:c r="K67" s="18"/>
     </x:row>
     <x:row r="68" spans="2:11">
-      <x:c r="B68" s="67" t="s">
-        <x:v>213</x:v>
+      <x:c r="B68" s="68" t="s">
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>221</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D68" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E68" s="10"/>
       <x:c r="F68" s="10"/>
@@ -4206,12 +4191,12 @@
       <x:c r="K68" s="11"/>
     </x:row>
     <x:row r="69" spans="2:11">
-      <x:c r="B69" s="66"/>
+      <x:c r="B69" s="67"/>
       <x:c r="C69" s="24" t="s">
-        <x:v>383</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D69" s="17" t="s">
-        <x:v>56</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E69" s="17"/>
       <x:c r="F69" s="17"/>
@@ -4222,14 +4207,14 @@
       <x:c r="K69" s="18"/>
     </x:row>
     <x:row r="70" spans="2:11">
-      <x:c r="B70" s="67" t="s">
-        <x:v>204</x:v>
+      <x:c r="B70" s="68" t="s">
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C70" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D70" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E70" s="10"/>
       <x:c r="F70" s="10"/>
@@ -4240,10 +4225,10 @@
       <x:c r="K70" s="11"/>
     </x:row>
     <x:row r="71" spans="2:11">
-      <x:c r="B71" s="66"/>
+      <x:c r="B71" s="67"/>
       <x:c r="C71" s="24"/>
       <x:c r="D71" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E71" s="17"/>
       <x:c r="F71" s="17"/>
@@ -4255,7 +4240,7 @@
     </x:row>
     <x:row r="72" spans="2:11">
       <x:c r="B72" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C72" s="17"/>
       <x:c r="D72" s="17"/>
@@ -4269,7 +4254,7 @@
     </x:row>
     <x:row r="73" spans="2:11">
       <x:c r="B73" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C73" s="13"/>
       <x:c r="D73" s="13"/>
@@ -4283,7 +4268,7 @@
     </x:row>
     <x:row r="75" spans="2:11">
       <x:c r="B75" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C75" s="26"/>
       <x:c r="D75" s="26"/>
@@ -4297,7 +4282,7 @@
     </x:row>
     <x:row r="76" spans="2:11">
       <x:c r="B76" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C76" s="16"/>
       <x:c r="D76" s="16"/>
@@ -4311,7 +4296,7 @@
     </x:row>
     <x:row r="77" spans="2:11">
       <x:c r="B77" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C77" s="10"/>
       <x:c r="D77" s="10"/>
@@ -4325,7 +4310,7 @@
     </x:row>
     <x:row r="78" spans="2:11">
       <x:c r="B78" s="9" t="s">
-        <x:v>144</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C78" s="10"/>
       <x:c r="D78" s="10"/>
@@ -4339,7 +4324,7 @@
     </x:row>
     <x:row r="79" spans="2:11">
       <x:c r="B79" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C79" s="13"/>
       <x:c r="D79" s="13"/>
@@ -4353,7 +4338,7 @@
     </x:row>
     <x:row r="81" spans="2:11">
       <x:c r="B81" s="25" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C81" s="26"/>
       <x:c r="D81" s="26"/>
@@ -4367,10 +4352,10 @@
     </x:row>
     <x:row r="84" spans="2:11">
       <x:c r="B84" s="23" t="s">
-        <x:v>216</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C84" s="26" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D84" s="26"/>
       <x:c r="E84" s="26"/>
@@ -4383,10 +4368,10 @@
     </x:row>
     <x:row r="85" spans="2:11">
       <x:c r="B85" s="23" t="s">
-        <x:v>277</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C85" s="26" t="s">
-        <x:v>343</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D85" s="26"/>
       <x:c r="E85" s="26"/>
@@ -4399,10 +4384,10 @@
     </x:row>
     <x:row r="88" spans="2:11">
       <x:c r="B88" s="23" t="s">
-        <x:v>378</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C88" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D88" s="26"/>
       <x:c r="E88" s="26"/>
@@ -4415,10 +4400,10 @@
     </x:row>
     <x:row r="89" spans="2:11">
       <x:c r="B89" s="29" t="s">
-        <x:v>234</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C89" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D89" s="16"/>
       <x:c r="E89" s="16"/>
@@ -4431,10 +4416,10 @@
     </x:row>
     <x:row r="90" spans="2:11">
       <x:c r="B90" s="30" t="s">
-        <x:v>207</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C90" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D90" s="10"/>
       <x:c r="E90" s="10"/>
@@ -4447,10 +4432,10 @@
     </x:row>
     <x:row r="91" spans="2:11">
       <x:c r="B91" s="30" t="s">
-        <x:v>364</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C91" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D91" s="10"/>
       <x:c r="E91" s="10"/>
@@ -4463,10 +4448,10 @@
     </x:row>
     <x:row r="92" spans="2:11">
       <x:c r="B92" s="30" t="s">
-        <x:v>273</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C92" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D92" s="10"/>
       <x:c r="E92" s="10"/>
@@ -4479,10 +4464,10 @@
     </x:row>
     <x:row r="93" spans="2:11">
       <x:c r="B93" s="30" t="s">
-        <x:v>362</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C93" s="10" t="s">
-        <x:v>345</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D93" s="10"/>
       <x:c r="E93" s="10"/>
@@ -4496,7 +4481,7 @@
     <x:row r="94" spans="2:11">
       <x:c r="B94" s="30"/>
       <x:c r="C94" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D94" s="10"/>
       <x:c r="E94" s="10"/>
@@ -4510,7 +4495,7 @@
     <x:row r="95" spans="2:11">
       <x:c r="B95" s="30"/>
       <x:c r="C95" s="10" t="s">
-        <x:v>178</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D95" s="10"/>
       <x:c r="E95" s="10"/>
@@ -4523,10 +4508,10 @@
     </x:row>
     <x:row r="96" spans="2:11">
       <x:c r="B96" s="30" t="s">
-        <x:v>393</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C96" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D96" s="10"/>
       <x:c r="E96" s="10"/>
@@ -4540,7 +4525,7 @@
     <x:row r="97" spans="2:11">
       <x:c r="B97" s="30"/>
       <x:c r="C97" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D97" s="10"/>
       <x:c r="E97" s="10"/>
@@ -4554,7 +4539,7 @@
     <x:row r="98" spans="2:11">
       <x:c r="B98" s="30"/>
       <x:c r="C98" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D98" s="10"/>
       <x:c r="E98" s="10"/>
@@ -4567,10 +4552,10 @@
     </x:row>
     <x:row r="99" spans="2:11">
       <x:c r="B99" s="30" t="s">
-        <x:v>363</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C99" s="10" t="s">
-        <x:v>335</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D99" s="10"/>
       <x:c r="E99" s="10"/>
@@ -4584,7 +4569,7 @@
     <x:row r="100" spans="2:11">
       <x:c r="B100" s="30"/>
       <x:c r="C100" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D100" s="10"/>
       <x:c r="E100" s="10"/>
@@ -4597,10 +4582,10 @@
     </x:row>
     <x:row r="101" spans="2:11">
       <x:c r="B101" s="30" t="s">
-        <x:v>195</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C101" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D101" s="10"/>
       <x:c r="E101" s="10"/>
@@ -4612,11 +4597,11 @@
       <x:c r="K101" s="11"/>
     </x:row>
     <x:row r="102" spans="2:11">
-      <x:c r="B102" s="62" t="s">
-        <x:v>355</x:v>
+      <x:c r="B102" s="63" t="s">
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C102" s="10" t="s">
-        <x:v>340</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D102" s="10"/>
       <x:c r="E102" s="10"/>
@@ -4628,9 +4613,9 @@
       <x:c r="K102" s="11"/>
     </x:row>
     <x:row r="103" spans="2:11">
-      <x:c r="B103" s="62"/>
+      <x:c r="B103" s="63"/>
       <x:c r="C103" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D103" s="10"/>
       <x:c r="E103" s="10"/>
@@ -4642,11 +4627,11 @@
       <x:c r="K103" s="11"/>
     </x:row>
     <x:row r="104" spans="2:11">
-      <x:c r="B104" s="62" t="s">
-        <x:v>352</x:v>
+      <x:c r="B104" s="63" t="s">
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C104" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D104" s="10"/>
       <x:c r="E104" s="10"/>
@@ -4658,9 +4643,9 @@
       <x:c r="K104" s="11"/>
     </x:row>
     <x:row r="105" spans="2:11">
-      <x:c r="B105" s="62"/>
+      <x:c r="B105" s="63"/>
       <x:c r="C105" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D105" s="10"/>
       <x:c r="E105" s="10"/>
@@ -4673,10 +4658,10 @@
     </x:row>
     <x:row r="106" spans="2:11">
       <x:c r="B106" s="31" t="s">
-        <x:v>192</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C106" s="13" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D106" s="13"/>
       <x:c r="E106" s="13"/>
@@ -4739,68 +4724,68 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.75">
       <x:c r="A1" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B1" s="32" t="s">
-        <x:v>386</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B3" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B4" s="11"/>
       <x:c r="D4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="30" t="s">
-        <x:v>365</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E5" s="21"/>
     </x:row>
     <x:row r="6" spans="1:5" s="6" customFormat="1">
       <x:c r="A6" s="53" t="s">
-        <x:v>390</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B6" s="54" t="s">
-        <x:v>332</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E6" s="21"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="55" t="s">
-        <x:v>331</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B7" s="56" t="s">
-        <x:v>333</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E7" s="21"/>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="D8" s="2"/>
@@ -4810,7 +4795,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>224</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D9" s="4"/>
     </x:row>
@@ -4819,7 +4804,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>149</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D10" s="4"/>
     </x:row>
@@ -4828,17 +4813,17 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>334</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="2"/>
       <x:c r="G11" s="43"/>
     </x:row>
     <x:row r="12" spans="1:3" s="4" customFormat="1" ht="16.75">
       <x:c r="A12" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B12" s="14" t="s">
-        <x:v>153</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C12" s="2"/>
     </x:row>
@@ -4852,35 +4837,35 @@
     </x:row>
     <x:row r="15" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A15" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B15" s="32" t="s">
-        <x:v>253</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2" s="2" customFormat="1">
       <x:c r="A16" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:2" s="2" customFormat="1">
       <x:c r="A17" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B17" s="18"/>
     </x:row>
     <x:row r="18" spans="1:2" s="2" customFormat="1">
       <x:c r="A18" s="34" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B18" s="18" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2" s="2" customFormat="1">
       <x:c r="A19" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B19" s="11"/>
     </x:row>
@@ -4889,7 +4874,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B20" s="11" t="s">
-        <x:v>299</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2" s="2" customFormat="1">
@@ -4897,15 +4882,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B21" s="18" t="s">
-        <x:v>188</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A22" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B22" s="14" t="s">
-        <x:v>282</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2" s="2" customFormat="1">
@@ -4919,39 +4904,39 @@
     </x:row>
     <x:row r="25" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A25" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B25" s="32" t="s">
-        <x:v>290</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2" s="2" customFormat="1">
       <x:c r="A26" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2" s="2" customFormat="1">
       <x:c r="A27" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2" s="2" customFormat="1">
       <x:c r="A28" s="34" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2" s="2" customFormat="1">
       <x:c r="A29" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B29" s="11"/>
     </x:row>
@@ -4960,7 +4945,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B30" s="11" t="s">
-        <x:v>315</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2" s="2" customFormat="1">
@@ -4968,15 +4953,15 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B31" s="18" t="s">
-        <x:v>188</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A32" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B32" s="14" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" s="2" customFormat="1">
@@ -4989,133 +4974,133 @@
     </x:row>
     <x:row r="35" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A35" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B35" s="32" t="s">
-        <x:v>206</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2" s="3" customFormat="1">
       <x:c r="A36" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B36" s="11" t="s">
-        <x:v>160</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2" s="3" customFormat="1">
       <x:c r="A37" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B37" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2" s="3" customFormat="1">
       <x:c r="A38" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B38" s="11"/>
     </x:row>
     <x:row r="39" spans="1:2" s="3" customFormat="1">
       <x:c r="A39" s="30" t="s">
-        <x:v>365</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B39" s="54" t="s">
-        <x:v>232</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2" s="3" customFormat="1">
       <x:c r="A40" s="30" t="s">
-        <x:v>346</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B40" s="54" t="s">
-        <x:v>217</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" s="3" customFormat="1">
       <x:c r="A41" s="30" t="s">
-        <x:v>190</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B41" s="54" t="s">
-        <x:v>51</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2" s="3" customFormat="1">
       <x:c r="A42" s="30" t="s">
-        <x:v>259</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B42" s="54" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" s="3" customFormat="1">
       <x:c r="A43" s="30" t="s">
-        <x:v>306</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B43" s="54" t="s">
-        <x:v>328</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2" s="3" customFormat="1">
       <x:c r="A44" s="30" t="s">
-        <x:v>221</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B44" s="54" t="s">
-        <x:v>329</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2" s="3" customFormat="1">
       <x:c r="A45" s="30" t="s">
-        <x:v>383</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B45" s="54" t="s">
-        <x:v>330</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2" s="3" customFormat="1">
       <x:c r="A46" s="30" t="s">
-        <x:v>231</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B46" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2" s="3" customFormat="1">
       <x:c r="A47" s="30" t="s">
-        <x:v>265</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B47" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2" s="3" customFormat="1">
       <x:c r="A48" s="30" t="s">
-        <x:v>312</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B48" s="54" t="s">
-        <x:v>154</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2" s="3" customFormat="1">
       <x:c r="A49" s="30" t="s">
-        <x:v>227</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B49" s="54" t="s">
-        <x:v>186</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2" s="3" customFormat="1">
       <x:c r="A50" s="34" t="s">
-        <x:v>99</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B50" s="18" t="s">
-        <x:v>158</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2" s="3" customFormat="1">
       <x:c r="A51" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B51" s="11"/>
     </x:row>
@@ -5124,7 +5109,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B52" s="11" t="s">
-        <x:v>302</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2" s="3" customFormat="1">
@@ -5132,25 +5117,25 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B53" s="11" t="s">
-        <x:v>156</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2" s="3" customFormat="1">
       <x:c r="A54" s="30"/>
       <x:c r="B54" s="11" t="s">
-        <x:v>161</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2" s="3" customFormat="1">
       <x:c r="A55" s="30"/>
       <x:c r="B55" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2" s="3" customFormat="1">
       <x:c r="A56" s="30"/>
       <x:c r="B56" s="11" t="s">
-        <x:v>163</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2" s="3" customFormat="1">
@@ -5158,15 +5143,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B57" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A58" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B58" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2" s="3" customFormat="1">
@@ -5178,45 +5163,45 @@
     </x:row>
     <x:row r="61" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A61" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B61" s="32" t="s">
-        <x:v>121</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2" s="2" customFormat="1">
       <x:c r="A62" s="44" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B62" s="45" t="s">
-        <x:v>185</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2" s="2" customFormat="1">
       <x:c r="A63" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B63" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2" s="2" customFormat="1">
       <x:c r="A64" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B64" s="11"/>
     </x:row>
     <x:row r="65" spans="1:2" s="2" customFormat="1">
       <x:c r="A65" s="34" t="s">
-        <x:v>365</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B65" s="18" t="s">
-        <x:v>232</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2" s="2" customFormat="1">
       <x:c r="A66" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B66" s="11"/>
     </x:row>
@@ -5225,7 +5210,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B67" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2" s="2" customFormat="1">
@@ -5233,15 +5218,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B68" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A69" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B69" s="14" t="s">
-        <x:v>177</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1" s="2" customFormat="1">
@@ -5252,45 +5237,45 @@
     </x:row>
     <x:row r="72" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A72" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B72" s="32" t="s">
-        <x:v>100</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2" s="2" customFormat="1">
       <x:c r="A73" s="44" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B73" s="45" t="s">
-        <x:v>34</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2" s="2" customFormat="1">
       <x:c r="A74" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B74" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2" s="2" customFormat="1">
       <x:c r="A75" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B75" s="11"/>
     </x:row>
     <x:row r="76" spans="1:2" s="2" customFormat="1">
       <x:c r="A76" s="34" t="s">
-        <x:v>236</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B76" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2" s="2" customFormat="1">
       <x:c r="A77" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B77" s="11"/>
     </x:row>
@@ -5299,7 +5284,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B78" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2" s="2" customFormat="1">
@@ -5307,15 +5292,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B79" s="18" t="s">
-        <x:v>181</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A80" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B80" s="14" t="s">
-        <x:v>155</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:1" s="2" customFormat="1">
@@ -5326,53 +5311,53 @@
     </x:row>
     <x:row r="83" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A83" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B83" s="32" t="s">
-        <x:v>116</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2" s="2" customFormat="1">
       <x:c r="A84" s="44" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B84" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2" s="2" customFormat="1">
       <x:c r="A85" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B85" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2" s="2" customFormat="1">
       <x:c r="A86" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B86" s="11"/>
     </x:row>
     <x:row r="87" spans="1:2" s="2" customFormat="1">
       <x:c r="A87" s="30" t="s">
-        <x:v>353</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B87" s="11" t="s">
-        <x:v>217</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2" s="2" customFormat="1">
       <x:c r="A88" s="34" t="s">
-        <x:v>267</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B88" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2" s="2" customFormat="1">
       <x:c r="A89" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B89" s="11"/>
     </x:row>
@@ -5381,7 +5366,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B90" s="11" t="s">
-        <x:v>157</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2" s="2" customFormat="1">
@@ -5389,15 +5374,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B91" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A92" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B92" s="14" t="s">
-        <x:v>151</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:1" s="2" customFormat="1">
@@ -5409,45 +5394,45 @@
     </x:row>
     <x:row r="95" spans="1:2" ht="16.75">
       <x:c r="A95" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B95" s="32" t="s">
-        <x:v>191</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B96" s="11" t="s">
-        <x:v>162</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B97" s="18" t="s">
-        <x:v>380</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B98" s="11"/>
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="34" t="s">
-        <x:v>236</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B99" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B100" s="11"/>
     </x:row>
@@ -5456,7 +5441,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B101" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2">
@@ -5464,13 +5449,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B102" s="11" t="s">
-        <x:v>168</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
       <x:c r="A103" s="30"/>
       <x:c r="B103" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2" s="2" customFormat="1">
@@ -5478,15 +5463,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B104" s="18" t="s">
-        <x:v>111</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2" ht="16.75">
       <x:c r="A105" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B105" s="14" t="s">
-        <x:v>140</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:3" s="4" customFormat="1">
@@ -5499,53 +5484,53 @@
     </x:row>
     <x:row r="108" spans="1:2" ht="16.75">
       <x:c r="A108" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B108" s="32" t="s">
-        <x:v>122</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2">
       <x:c r="A109" s="30" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B109" s="11" t="s">
-        <x:v>147</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B110" s="18" t="s">
-        <x:v>380</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B111" s="11"/>
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" s="30" t="s">
-        <x:v>365</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B112" s="11" t="s">
-        <x:v>212</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="34" t="s">
-        <x:v>236</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B113" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B114" s="11"/>
     </x:row>
@@ -5554,7 +5539,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B115" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:2">
@@ -5562,13 +5547,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B116" s="11" t="s">
-        <x:v>149</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2">
       <x:c r="A117" s="30"/>
       <x:c r="B117" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2">
@@ -5576,15 +5561,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B118" s="18" t="s">
-        <x:v>111</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:2" ht="16.75">
       <x:c r="A119" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B119" s="14" t="s">
-        <x:v>395</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:2">
@@ -5595,53 +5580,53 @@
     </x:row>
     <x:row r="122" spans="1:2" ht="16.75">
       <x:c r="A122" s="33" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B122" s="32" t="s">
-        <x:v>387</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" s="44" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B123" s="45" t="s">
-        <x:v>297</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="34" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B124" s="18" t="s">
-        <x:v>380</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="30" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B125" s="11"/>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="30" t="s">
-        <x:v>376</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B126" s="11" t="s">
-        <x:v>269</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="34" t="s">
-        <x:v>252</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B127" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="30" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B128" s="11"/>
     </x:row>
@@ -5650,7 +5635,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B129" s="11" t="s">
-        <x:v>245</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:2">
@@ -5658,15 +5643,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B130" s="18" t="s">
-        <x:v>62</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2" ht="16.75">
       <x:c r="A131" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B131" s="14" t="s">
-        <x:v>337</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:2">
@@ -5677,43 +5662,43 @@
     </x:row>
     <x:row r="134" spans="1:2" ht="16.75">
       <x:c r="A134" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B134" s="32" t="s">
-        <x:v>182</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="46" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B135" s="11"/>
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" s="49" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B136" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" s="46" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B137" s="11"/>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="49" t="s">
-        <x:v>267</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B138" s="18" t="s">
-        <x:v>267</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="46" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B139" s="11"/>
     </x:row>
@@ -5722,7 +5707,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B140" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:2">
@@ -5730,15 +5715,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B141" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2" ht="16.75">
       <x:c r="A142" s="47" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B142" s="14" t="s">
-        <x:v>339</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="2:2">
@@ -5746,91 +5731,91 @@
     </x:row>
     <x:row r="145" spans="1:2" ht="16.75">
       <x:c r="A145" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B145" s="32" t="s">
-        <x:v>307</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:2">
       <x:c r="A146" s="46" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B146" s="11"/>
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="49" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B147" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" s="46" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B148" s="11"/>
     </x:row>
     <x:row r="149" spans="1:2" s="2" customFormat="1">
       <x:c r="A149" s="46" t="s">
-        <x:v>316</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B149" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:2" s="2" customFormat="1">
       <x:c r="A150" s="46" t="s">
-        <x:v>289</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B150" s="11" t="s">
-        <x:v>267</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2" s="2" customFormat="1">
       <x:c r="A151" s="46" t="s">
-        <x:v>292</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B151" s="11" t="s">
-        <x:v>272</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2" s="2" customFormat="1">
       <x:c r="A152" s="46" t="s">
-        <x:v>70</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B152" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2" s="2" customFormat="1">
       <x:c r="A153" s="46" t="s">
-        <x:v>319</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B153" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2" s="2" customFormat="1">
       <x:c r="A154" s="46" t="s">
-        <x:v>266</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B154" s="11" t="s">
-        <x:v>251</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2" s="2" customFormat="1">
       <x:c r="A155" s="49" t="s">
-        <x:v>243</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B155" s="18" t="s">
-        <x:v>173</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="46" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B156" s="11"/>
     </x:row>
@@ -5839,7 +5824,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B157" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:2">
@@ -5847,72 +5832,72 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B158" s="18" t="s">
-        <x:v>341</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2" ht="16.75">
       <x:c r="A159" s="47" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B159" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:2" ht="16.75">
       <x:c r="A162" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B162" s="32" t="s">
-        <x:v>166</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2">
       <x:c r="A163" s="46" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B163" s="11"/>
     </x:row>
     <x:row r="164" spans="1:2">
       <x:c r="A164" s="49" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B164" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="46" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B165" s="11"/>
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="46" t="s">
-        <x:v>284</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B166" s="11" t="s">
-        <x:v>274</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:2">
       <x:c r="A167" s="46" t="s">
-        <x:v>196</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B167" s="54" t="s">
-        <x:v>1</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:2">
       <x:c r="A168" s="49" t="s">
-        <x:v>268</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B168" s="18" t="s">
-        <x:v>164</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:2">
       <x:c r="A169" s="46" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B169" s="11"/>
     </x:row>
@@ -5921,7 +5906,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B170" s="11" t="s">
-        <x:v>271</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:2">
@@ -5929,75 +5914,75 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B171" s="18" t="s">
-        <x:v>138</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:2" ht="16.75">
       <x:c r="A172" s="47" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B172" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:2" ht="16.75">
       <x:c r="A175" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B175" s="32" t="s">
-        <x:v>193</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:2">
       <x:c r="A176" s="46" t="s">
-        <x:v>366</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B176" s="11"/>
     </x:row>
     <x:row r="177" spans="1:2">
       <x:c r="A177" s="49" t="s">
-        <x:v>226</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B177" s="18" t="s">
-        <x:v>287</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:2">
       <x:c r="A178" s="46" t="s">
-        <x:v>214</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B178" s="11"/>
     </x:row>
     <x:row r="179" spans="1:2">
       <x:c r="A179" s="46" t="s">
-        <x:v>295</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B179" s="11" t="s">
-        <x:v>175</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:2">
       <x:c r="A180" s="46" t="s">
-        <x:v>322</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B180" s="11" t="s">
-        <x:v>165</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:2">
       <x:c r="A181" s="49" t="s">
-        <x:v>268</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B181" s="18" t="s">
-        <x:v>167</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
       <x:c r="A182" s="46" t="s">
-        <x:v>205</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B182" s="11" t="s">
-        <x:v>170</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
@@ -6005,7 +5990,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B183" s="11" t="s">
-        <x:v>262</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:2">
@@ -6013,15 +5998,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B184" s="18" t="s">
-        <x:v>255</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2" ht="16.75">
       <x:c r="A185" s="47" t="s">
-        <x:v>374</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B185" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6036,7 +6021,7 @@
   <x:dimension ref="A1:G150"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H7" activeCellId="0" sqref="H7:H7"/>
+      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -6051,620 +6036,620 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="16.75">
       <x:c r="A4" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B4" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C4" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D4" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E4" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F4" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G4" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" s="2" customFormat="1">
       <x:c r="A5" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B5" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="57" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E5" s="35" t="s">
-        <x:v>260</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F5" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G5" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="35" t="s">
-        <x:v>118</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B6" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C6" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E6" s="35" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="F6" s="80" t="s">
-        <x:v>372</x:v>
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F6" s="62" t="s">
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G6" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="35" t="s">
-        <x:v>187</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B7" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C7" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E7" s="35" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="F7" s="80"/>
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F7" s="62"/>
       <x:c r="G7" s="36" t="s">
-        <x:v>351</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="35" t="s">
-        <x:v>87</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B8" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C8" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E8" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F8" s="35"/>
       <x:c r="G8" s="36" t="s">
-        <x:v>196</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="35" t="s">
-        <x:v>96</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B9" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C9" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D9" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E9" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F9" s="35"/>
       <x:c r="G9" s="36" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="35" t="s">
-        <x:v>220</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B10" s="35" t="s">
-        <x:v>228</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C10" s="35"/>
       <x:c r="D10" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E10" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F10" s="35"/>
       <x:c r="G10" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B11" s="35" t="s">
-        <x:v>242</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C11" s="37" t="s">
-        <x:v>240</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D11" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E11" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F11" s="35"/>
       <x:c r="G11" s="36" t="s">
-        <x:v>383</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="35" t="s">
-        <x:v>154</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B12" s="35" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C12" s="37" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="D12" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E12" s="35" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="C12" s="37" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="D12" s="35" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="E12" s="35" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="35"/>
       <x:c r="G12" s="36" t="s">
-        <x:v>197</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="35" t="s">
-        <x:v>186</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B13" s="35" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C13" s="37" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="D13" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E13" s="35" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="C13" s="37" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="D13" s="35" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="E13" s="35" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="35"/>
       <x:c r="G13" s="36" t="s">
-        <x:v>123</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="2" customFormat="1">
       <x:c r="A14" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B14" s="57" t="s">
-        <x:v>85</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C14" s="37"/>
       <x:c r="D14" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E14" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F14" s="35"/>
       <x:c r="G14" s="36" t="s">
-        <x:v>392</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="1" customFormat="1">
       <x:c r="A15" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B15" s="35" t="s">
-        <x:v>85</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C15" s="37"/>
       <x:c r="D15" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E15" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F15" s="35"/>
       <x:c r="G15" s="36" t="s">
-        <x:v>86</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" s="2" customFormat="1">
       <x:c r="A16" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B16" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C16" s="37"/>
       <x:c r="D16" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E16" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="35"/>
       <x:c r="G16" s="36" t="s">
-        <x:v>246</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" s="6" customFormat="1">
       <x:c r="A17" s="57" t="s">
-        <x:v>298</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B17" s="57" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C17" s="37"/>
       <x:c r="D17" s="57" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E17" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="35"/>
       <x:c r="G17" s="60" t="s">
-        <x:v>305</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="16.75">
       <x:c r="A18" s="58" t="s">
-        <x:v>320</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B18" s="58" t="s">
-        <x:v>242</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C18" s="61" t="s">
-        <x:v>327</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="58" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E18" s="58">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="38"/>
       <x:c r="G18" s="59" t="s">
-        <x:v>43</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="16.75">
       <x:c r="A21" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B21" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C21" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D21" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E21" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F21" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G21" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B22" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C22" s="35"/>
       <x:c r="D22" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E22" s="35" t="s">
-        <x:v>260</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F22" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G22" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="35" t="s">
-        <x:v>53</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B23" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C23" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D23" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E23" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F23" s="35"/>
       <x:c r="G23" s="36" t="s">
-        <x:v>210</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="35" t="s">
-        <x:v>208</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B24" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C24" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D24" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E24" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F24" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G24" s="36" t="s">
-        <x:v>58</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="35" t="s">
-        <x:v>296</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C25" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D25" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E25" s="35"/>
       <x:c r="F25" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G25" s="36" t="s">
-        <x:v>95</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="35" t="s">
-        <x:v>109</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B26" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C26" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D26" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E26" s="35"/>
       <x:c r="F26" s="35"/>
       <x:c r="G26" s="36" t="s">
-        <x:v>215</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="35" t="s">
-        <x:v>115</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B27" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C27" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D27" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E27" s="35"/>
       <x:c r="F27" s="35"/>
       <x:c r="G27" s="36" t="s">
-        <x:v>323</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="35" t="s">
-        <x:v>183</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B28" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C28" s="35"/>
       <x:c r="D28" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E28" s="35"/>
       <x:c r="F28" s="35"/>
       <x:c r="G28" s="36" t="s">
-        <x:v>194</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="16.75">
       <x:c r="A29" s="38" t="s">
-        <x:v>80</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B29" s="38" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C29" s="39"/>
       <x:c r="D29" s="38" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E29" s="38"/>
       <x:c r="F29" s="38" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G29" s="40" t="s">
-        <x:v>257</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>385</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="16.75">
       <x:c r="A32" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B32" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C32" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D32" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E32" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F32" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G32" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" s="2" customFormat="1">
       <x:c r="A33" s="35" t="s">
-        <x:v>275</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B33" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C33" s="35"/>
       <x:c r="D33" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E33" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F33" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G33" s="36" t="s">
-        <x:v>304</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B34" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C34" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E34" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F34" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G34" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B35" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C35" s="35"/>
       <x:c r="D35" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E35" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F35" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G35" s="36" t="s">
-        <x:v>89</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" ht="16.75">
@@ -6678,101 +6663,101 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>314</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7" ht="16.75">
       <x:c r="A39" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B39" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C39" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D39" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E39" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F39" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G39" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" s="2" customFormat="1">
       <x:c r="A40" s="35" t="s">
-        <x:v>311</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B40" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C40" s="35"/>
       <x:c r="D40" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E40" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F40" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G40" s="36" t="s">
-        <x:v>249</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B41" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C41" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D41" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E41" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F41" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G41" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B42" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C42" s="35"/>
       <x:c r="D42" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E42" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F42" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G42" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7" ht="16.75">
@@ -6786,101 +6771,101 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7" ht="16.75">
       <x:c r="A46" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B46" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C46" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D46" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E46" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F46" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G46" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" s="2" customFormat="1">
       <x:c r="A47" s="35" t="s">
-        <x:v>279</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C47" s="35"/>
       <x:c r="D47" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E47" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F47" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G47" s="36" t="s">
-        <x:v>102</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B48" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C48" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D48" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E48" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F48" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G48" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B49" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C49" s="35"/>
       <x:c r="D49" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E49" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F49" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G49" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="16.75">
@@ -6894,131 +6879,131 @@
     </x:row>
     <x:row r="52" spans="1:3" s="2" customFormat="1">
       <x:c r="A52" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>303</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>293</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" s="2" customFormat="1" ht="16.75">
       <x:c r="A53" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B53" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C53" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D53" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E53" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F53" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G53" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" s="2" customFormat="1">
       <x:c r="A54" s="35" t="s">
-        <x:v>237</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B54" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C54" s="35"/>
       <x:c r="D54" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E54" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F54" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G54" s="36" t="s">
-        <x:v>324</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" s="2" customFormat="1">
       <x:c r="A55" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B55" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C55" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D55" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E55" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F55" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G55" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" s="2" customFormat="1">
       <x:c r="A56" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B56" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C56" s="35"/>
       <x:c r="D56" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E56" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F56" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G56" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" s="2" customFormat="1">
       <x:c r="A57" s="35" t="s">
-        <x:v>275</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B57" s="35"/>
       <x:c r="C57" s="35"/>
       <x:c r="D57" s="35"/>
       <x:c r="E57" s="35"/>
       <x:c r="F57" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G57" s="36" t="s">
-        <x:v>304</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" s="2" customFormat="1">
       <x:c r="A58" s="35" t="s">
-        <x:v>311</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B58" s="35"/>
       <x:c r="C58" s="35"/>
       <x:c r="D58" s="35"/>
       <x:c r="E58" s="35"/>
       <x:c r="F58" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G58" s="36" t="s">
-        <x:v>249</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" s="2" customFormat="1" ht="16.75">
@@ -7033,175 +7018,175 @@
     <x:row r="60" s="2" customFormat="1"/>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>285</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>325</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="16.75">
       <x:c r="A62" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B62" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C62" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D62" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E62" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F62" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G62" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" s="2" customFormat="1">
       <x:c r="A63" s="35" t="s">
-        <x:v>80</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B63" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C63" s="35"/>
       <x:c r="D63" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E63" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F63" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G63" s="36" t="s">
-        <x:v>257</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B64" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C64" s="35"/>
       <x:c r="D64" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E64" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F64" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G64" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B65" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C65" s="35"/>
       <x:c r="D65" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E65" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F65" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G65" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="35" t="s">
-        <x:v>222</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B66" s="35" t="s">
-        <x:v>242</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C66" s="35" t="s">
-        <x:v>103</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D66" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E66" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F66" s="35"/>
       <x:c r="G66" s="36" t="s">
-        <x:v>317</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7">
       <x:c r="A67" s="35" t="s">
-        <x:v>261</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B67" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C67" s="35">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D67" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E67" s="35"/>
       <x:c r="F67" s="35"/>
       <x:c r="G67" s="36" t="s">
-        <x:v>239</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7">
       <x:c r="A68" s="35" t="s">
-        <x:v>230</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B68" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C68" s="35">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D68" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E68" s="35"/>
       <x:c r="F68" s="35"/>
       <x:c r="G68" s="36" t="s">
-        <x:v>379</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7">
       <x:c r="A69" s="35" t="s">
-        <x:v>101</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B69" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C69" s="35"/>
       <x:c r="D69" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E69" s="35"/>
       <x:c r="F69" s="35"/>
       <x:c r="G69" s="36" t="s">
-        <x:v>377</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="16.75">
@@ -7215,13 +7200,13 @@
     </x:row>
     <x:row r="72" spans="1:7">
       <x:c r="A72" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>309</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D72" s="2"/>
       <x:c r="E72" s="2"/>
@@ -7230,185 +7215,185 @@
     </x:row>
     <x:row r="73" spans="1:7" ht="16.75">
       <x:c r="A73" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B73" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C73" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D73" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E73" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F73" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G73" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" s="2" customFormat="1">
       <x:c r="A74" s="35" t="s">
-        <x:v>208</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B74" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C74" s="35"/>
       <x:c r="D74" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E74" s="35" t="s">
-        <x:v>260</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F74" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G74" s="36" t="s">
-        <x:v>58</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7">
       <x:c r="A75" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B75" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C75" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D75" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E75" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F75" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G75" s="36" t="s">
-        <x:v>241</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7">
       <x:c r="A76" s="35" t="s">
-        <x:v>73</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B76" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C76" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D76" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E76" s="35"/>
       <x:c r="F76" s="35"/>
       <x:c r="G76" s="36" t="s">
-        <x:v>356</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7">
       <x:c r="A77" s="35" t="s">
-        <x:v>69</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B77" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C77" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D77" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="35"/>
       <x:c r="F77" s="35"/>
       <x:c r="G77" s="36" t="s">
-        <x:v>354</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7">
       <x:c r="A78" s="35" t="s">
-        <x:v>93</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B78" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C78" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D78" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E78" s="35"/>
       <x:c r="F78" s="35"/>
       <x:c r="G78" s="36" t="s">
-        <x:v>357</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7">
       <x:c r="A79" s="35" t="s">
-        <x:v>71</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B79" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C79" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D79" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E79" s="35"/>
       <x:c r="F79" s="35"/>
       <x:c r="G79" s="36" t="s">
-        <x:v>371</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7">
       <x:c r="A80" s="35" t="s">
-        <x:v>78</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B80" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C80" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D80" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E80" s="35"/>
       <x:c r="F80" s="35"/>
       <x:c r="G80" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7">
       <x:c r="A81" s="35" t="s">
-        <x:v>68</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B81" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C81" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D81" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E81" s="35"/>
       <x:c r="F81" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G81" s="36" t="s">
-        <x:v>263</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" ht="16.75">
@@ -7422,13 +7407,13 @@
     </x:row>
     <x:row r="84" spans="1:7">
       <x:c r="A84" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B84" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C84" s="2" t="s">
-        <x:v>281</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D84" s="2"/>
       <x:c r="E84" s="2"/>
@@ -7437,185 +7422,185 @@
     </x:row>
     <x:row r="85" spans="1:7" ht="16.75">
       <x:c r="A85" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B85" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C85" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D85" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E85" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F85" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G85" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:7">
       <x:c r="A86" s="35" t="s">
-        <x:v>296</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B86" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C86" s="35"/>
       <x:c r="D86" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E86" s="35" t="s">
-        <x:v>260</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F86" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G86" s="36" t="s">
-        <x:v>95</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" s="2" customFormat="1">
       <x:c r="A87" s="35" t="s">
-        <x:v>270</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B87" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C87" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D87" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E87" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F87" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G87" s="36" t="s">
-        <x:v>241</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" s="2" customFormat="1">
       <x:c r="A88" s="35" t="s">
-        <x:v>63</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B88" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C88" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D88" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E88" s="35"/>
       <x:c r="F88" s="35"/>
       <x:c r="G88" s="36" t="s">
-        <x:v>356</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" s="2" customFormat="1">
       <x:c r="A89" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B89" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C89" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D89" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E89" s="35"/>
       <x:c r="F89" s="35"/>
       <x:c r="G89" s="36" t="s">
-        <x:v>354</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:7" s="2" customFormat="1">
       <x:c r="A90" s="35" t="s">
-        <x:v>72</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B90" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C90" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D90" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E90" s="35"/>
       <x:c r="F90" s="35"/>
       <x:c r="G90" s="36" t="s">
-        <x:v>357</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:7">
       <x:c r="A91" s="35" t="s">
-        <x:v>77</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B91" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C91" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D91" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E91" s="35"/>
       <x:c r="F91" s="35"/>
       <x:c r="G91" s="36" t="s">
-        <x:v>371</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7">
       <x:c r="A92" s="35" t="s">
-        <x:v>82</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B92" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C92" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D92" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E92" s="35"/>
       <x:c r="F92" s="35"/>
       <x:c r="G92" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7">
       <x:c r="A93" s="35" t="s">
-        <x:v>132</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B93" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C93" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D93" s="35" t="s">
-        <x:v>361</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E93" s="35"/>
       <x:c r="F93" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G93" s="36" t="s">
-        <x:v>263</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" ht="16.75">
@@ -7629,13 +7614,13 @@
     </x:row>
     <x:row r="96" spans="1:7">
       <x:c r="A96" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B96" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C96" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D96" s="2"/>
       <x:c r="E96" s="2"/>
@@ -7644,84 +7629,84 @@
     </x:row>
     <x:row r="97" spans="1:7" ht="16.75">
       <x:c r="A97" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B97" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C97" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D97" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E97" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F97" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G97" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7">
       <x:c r="A98" s="35" t="s">
-        <x:v>176</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B98" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C98" s="35"/>
       <x:c r="D98" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E98" s="35"/>
       <x:c r="F98" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G98" s="36" t="s">
-        <x:v>313</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7">
       <x:c r="A99" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B99" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C99" s="35"/>
       <x:c r="D99" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E99" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F99" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G99" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7">
       <x:c r="A100" s="35" t="s">
-        <x:v>294</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B100" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C100" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D100" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E100" s="35"/>
       <x:c r="F100" s="35"/>
       <x:c r="G100" s="36" t="s">
-        <x:v>308</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7">
@@ -7771,7 +7756,7 @@
     </x:row>
     <x:row r="106" spans="1:7" ht="16.75">
       <x:c r="A106" s="38" t="s">
-        <x:v>150</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B106" s="38"/>
       <x:c r="C106" s="39"/>
@@ -7782,13 +7767,13 @@
     </x:row>
     <x:row r="108" spans="1:7">
       <x:c r="A108" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B108" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C108" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D108" s="2"/>
       <x:c r="E108" s="2"/>
@@ -7797,88 +7782,88 @@
     </x:row>
     <x:row r="109" spans="1:7" ht="16.75">
       <x:c r="A109" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B109" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C109" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D109" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E109" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F109" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G109" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:7">
       <x:c r="A110" s="35" t="s">
-        <x:v>74</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B110" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C110" s="35"/>
       <x:c r="D110" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E110" s="35"/>
       <x:c r="F110" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G110" s="36" t="s">
-        <x:v>276</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7">
       <x:c r="A111" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B111" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C111" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D111" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E111" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F111" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G111" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7">
       <x:c r="A112" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B112" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C112" s="35"/>
       <x:c r="D112" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E112" s="35" t="s">
-        <x:v>388</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F112" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G112" s="36" t="s">
-        <x:v>89</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7">
@@ -7901,13 +7886,13 @@
     </x:row>
     <x:row r="116" spans="1:7">
       <x:c r="A116" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C116" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D116" s="2"/>
       <x:c r="E116" s="2"/>
@@ -7916,25 +7901,25 @@
     </x:row>
     <x:row r="117" spans="1:7" ht="16.75">
       <x:c r="A117" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B117" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C117" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D117" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E117" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F117" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G117" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" s="2" customFormat="1">
@@ -7948,48 +7933,48 @@
     </x:row>
     <x:row r="119" spans="1:7">
       <x:c r="A119" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B119" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C119" s="35"/>
       <x:c r="D119" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E119" s="35"/>
       <x:c r="F119" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G119" s="36" t="s">
-        <x:v>120</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:7">
       <x:c r="A120" s="35" t="s">
-        <x:v>288</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B120" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C120" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D120" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E120" s="35"/>
       <x:c r="F120" s="35"/>
       <x:c r="G120" s="36" t="s">
-        <x:v>384</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7">
       <x:c r="A121" s="35" t="s">
-        <x:v>321</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B121" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C121" s="35">
         <x:v>100</x:v>
@@ -7998,15 +7983,15 @@
       <x:c r="E121" s="35"/>
       <x:c r="F121" s="35"/>
       <x:c r="G121" s="36" t="s">
-        <x:v>318</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7">
       <x:c r="A122" s="35" t="s">
-        <x:v>349</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B122" s="35" t="s">
-        <x:v>223</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C122" s="35">
         <x:v>100</x:v>
@@ -8015,7 +8000,7 @@
       <x:c r="E122" s="35"/>
       <x:c r="F122" s="35"/>
       <x:c r="G122" s="36" t="s">
-        <x:v>381</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="16.75">
@@ -8029,13 +8014,13 @@
     </x:row>
     <x:row r="125" spans="1:7">
       <x:c r="A125" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B125" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C125" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D125" s="2"/>
       <x:c r="E125" s="2"/>
@@ -8044,25 +8029,25 @@
     </x:row>
     <x:row r="126" spans="1:7" ht="16.75">
       <x:c r="A126" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B126" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C126" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D126" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E126" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F126" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G126" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:7">
@@ -8112,7 +8097,7 @@
     </x:row>
     <x:row r="132" spans="1:7" ht="16.75">
       <x:c r="A132" s="38" t="s">
-        <x:v>189</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B132" s="38"/>
       <x:c r="C132" s="39"/>
@@ -8123,13 +8108,13 @@
     </x:row>
     <x:row r="134" spans="1:7">
       <x:c r="A134" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B134" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D134" s="1"/>
       <x:c r="E134" s="1"/>
@@ -8138,25 +8123,25 @@
     </x:row>
     <x:row r="135" spans="1:7" ht="16.75">
       <x:c r="A135" s="41" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B135" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C135" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D135" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E135" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F135" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G135" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7">
@@ -8170,33 +8155,33 @@
     </x:row>
     <x:row r="137" spans="1:7">
       <x:c r="A137" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B137" s="35"/>
       <x:c r="C137" s="35"/>
       <x:c r="D137" s="35"/>
       <x:c r="E137" s="35"/>
       <x:c r="F137" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G137" s="36"/>
     </x:row>
     <x:row r="138" spans="1:7">
       <x:c r="A138" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B138" s="35"/>
       <x:c r="C138" s="35"/>
       <x:c r="D138" s="35"/>
       <x:c r="E138" s="35"/>
       <x:c r="F138" s="35" t="s">
-        <x:v>368</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G138" s="36"/>
     </x:row>
     <x:row r="139" spans="1:7">
       <x:c r="A139" s="35" t="s">
-        <x:v>83</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B139" s="35"/>
       <x:c r="C139" s="35"/>
@@ -8204,7 +8189,7 @@
       <x:c r="E139" s="35"/>
       <x:c r="F139" s="35"/>
       <x:c r="G139" s="36" t="s">
-        <x:v>209</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7">
@@ -8227,13 +8212,13 @@
     </x:row>
     <x:row r="143" spans="1:7">
       <x:c r="A143" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B143" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D143" s="1"/>
       <x:c r="E143" s="1"/>
@@ -8242,46 +8227,46 @@
     </x:row>
     <x:row r="144" spans="1:7" ht="16.75">
       <x:c r="A144" s="50" t="s">
-        <x:v>350</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B144" s="41" t="s">
-        <x:v>247</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C144" s="41" t="s">
-        <x:v>301</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D144" s="41" t="s">
-        <x:v>200</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E144" s="41" t="s">
-        <x:v>369</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F144" s="41" t="s">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G144" s="42" t="s">
-        <x:v>347</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7">
       <x:c r="A145" s="51" t="s">
-        <x:v>94</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B145" s="35" t="s">
-        <x:v>358</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C145" s="35"/>
       <x:c r="D145" s="35" t="s">
-        <x:v>202</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E145" s="35" t="s">
-        <x:v>260</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F145" s="35" t="s">
-        <x:v>389</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G145" s="36" t="s">
-        <x:v>92</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7">

--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="9870" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11610" tabRatio="500" firstSheet="1" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="분석" sheetId="1" r:id="rId4"/>
@@ -22,688 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="401">
-  <x:si>
-    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gread</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 푸시 수신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wish_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예)1999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>author</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1','2'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/serch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이/설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 구독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 수단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대표저서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 검색한 기록 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작가 / 번역가 / 출판사 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 하단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원상태(1-정상 / 2-탈퇴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw 와 pwchk 가 같지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일하지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입
-로그인
-캐쉬충전
-내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(5~20자 영문,숫자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 : rdbooks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 상단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/find/password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2,3,4,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성인검색표시 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 페이지 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>terms_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 수집 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 성인 제외 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buyprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형식이 잘못된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rentprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택정보 제공동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 대여가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재입력 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>translator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>signup_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보가 없는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wishlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 확인 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 변경 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 세부 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 고유 식별번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>memberinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 로그인 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 구매가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 고유 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도(4자리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email_subs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남 / 녀 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입된 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>all_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 형식이 잘못됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 결과 없음</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="401">
   <x:si>
     <x:r>
       <x:t>P</x:t>
@@ -718,154 +37,226 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
     <x:t>국적</x:t>
   </x:si>
   <x:si>
-    <x:t>기능명</x:t>
+    <x:t>인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코멘트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
   </x:si>
   <x:si>
     <x:t>허용</x:t>
   </x:si>
   <x:si>
-    <x:t>코멘트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
     <x:t>tel</x:t>
   </x:si>
   <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인덱스</x:t>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
   </x:si>
   <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필</x:t>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
   </x:si>
   <x:si>
     <x:t>INT</x:t>
   </x:si>
   <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
   </x:si>
   <x:si>
     <x:t>UK</x:t>
   </x:si>
   <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
     <x:t>주소</x:t>
   </x:si>
   <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
   </x:si>
   <x:si>
     <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
@@ -874,358 +265,964 @@
     <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
+    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/find/password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예)1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱 푸시 수신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wish_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이/설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 수단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/serch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 구독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표저서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이리디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M','F'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야간 앱 푸시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y','N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 표지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 캐쉬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PWChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명 :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 실패</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약관동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마케팅동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미리보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 검색한 기록 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw 와 pwchk 가 같지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작가 / 번역가 / 출판사 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디(5~20자 영문,숫자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입
+로그인
+캐쉬충전
+내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일하지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 : rdbooks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 상단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 하단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3,4,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 페이지 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 수집 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성인검색표시 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 성인 제외 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형식이 잘못된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buyprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택정보 제공동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 대여가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>terms_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rentprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>translator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보가 없는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wishlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>signup_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재입력 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 확인 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 변경 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 고유 식별번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 고유 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 세부 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 로그인 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 구매가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도(4자리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입된 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 결과 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>all_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 형식이 잘못됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남 / 녀 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email_subs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>privacy_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 나중에 시간나면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인을 하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일함</x:t>
   </x:si>
   <x:si>
     <x:t>marketing_agree</x:t>
   </x:si>
   <x:si>
-    <x:t>pw와 pwChk가 동일함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인을 하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>privacy_agree</x:t>
-  </x:si>
-  <x:si>
     <x:t>이메일 중복 확인 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>* 나중에 시간나면 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_pw</x:t>
+    <x:t>입력값이 형식에 맞지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>select_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 하지 않은 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notifucation_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 - 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>night_appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별점 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/find/id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>introduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_methods</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호랑 동일하게 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 간단하게 구현해볼 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/login</x:t>
   </x:si>
   <x:si>
     <x:t>필수 동의가 선택되지 않음</x:t>
   </x:si>
   <x:si>
-    <x:t>아이디 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별점 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 이메일</x:t>
-  </x:si>
-  <x:si>
     <x:t>payment_money</x:t>
   </x:si>
   <x:si>
-    <x:t>/member/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/login</x:t>
-  </x:si>
-  <x:si>
     <x:t>구매 / 대여 금액 표시</x:t>
   </x:si>
   <x:si>
-    <x:t>/member/find/id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호랑 동일하게 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>introduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 전달되지 않음</x:t>
+    <x:t>입력한 값이 비밀번호와 다름</x:t>
   </x:si>
   <x:si>
     <x:t>회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 형식에 맞지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 간단하게 구현해볼 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notifucation_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>night_appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 비밀번호와 다름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_methods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 - 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>select_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 하지 않은 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>book_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adult</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y','N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야간 앱 푸시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이리디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 표지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M','F'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 캐쉬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 실패</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PWChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약관동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마케팅동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미리보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1255,6 +1252,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>l</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ogin_pw</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>s</x:t>
     </x:r>
     <x:r>
@@ -1267,17 +1277,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>l</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ogin_pw</x:t>
-    </x:r>
+    <x:t>회원상태(0-정상 / 1-탈퇴)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2210,9 +2210,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2380,372 +2377,20 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="14">
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff6182d6"/>
-          <x:bgColor rgb="ff6182d6"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff94a5df"/>
-          <x:bgColor rgb="ff94a5df"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border>
-        <x:top style="thin">
-          <x:color rgb="ff6182d6"/>
-        </x:top>
-        <x:bottom style="thin">
-          <x:color rgb="ff6182d6"/>
-        </x:bottom>
-      </x:border>
-    </x:dxf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff6182d6"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:b val="1"/>
-          </x:font>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff6182d6"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:bottom style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:b val="1"/>
-          </x:font>
-          <x:border>
-            <x:bottom style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+  <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:left>
-              <x:color auto="1"/>
-            </x:left>
-            <x:right>
-              <x:color auto="1"/>
-            </x:right>
-            <x:top style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:top>
-            <x:bottom style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:bottom>
-            <x:vertical>
-              <x:color auto="1"/>
-            </x:vertical>
-            <x:horizontal>
-              <x:color auto="1"/>
-            </x:horizontal>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-          </x:font>
-          <x:border>
-            <x:left>
-              <x:color auto="1"/>
-            </x:left>
-            <x:right>
-              <x:color auto="1"/>
-            </x:right>
-            <x:top style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:top>
-            <x:bottom style="medium">
-              <x:color rgb="ff6182d6"/>
-            </x:bottom>
-            <x:vertical>
-              <x:color auto="1"/>
-            </x:vertical>
-            <x:horizontal>
-              <x:color auto="1"/>
-            </x:horizontal>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffaebfea"/>
-          <x:bgColor rgb="ffaebfea"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffaebfea"/>
-          <x:bgColor rgb="ffaebfea"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:top style="thick">
-              <x:color rgb="ffffffff"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:top style="thick">
-              <x:color rgb="ffffffff"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:bottom style="thick">
-              <x:color rgb="ffffffff"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff6182d6"/>
-              <x:bgColor rgb="ff6182d6"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:bottom style="thick">
-              <x:color rgb="ffffffff"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2813,31 +2458,336 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:dxfs>
   <x:tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="7">
-      <x:tableStyleElement type="wholeTable" size="1" dxfId="13"/>
-      <x:tableStyleElement type="headerRow" size="1" dxfId="12"/>
-      <x:tableStyleElement type="totalRow" size="1" dxfId="11"/>
-      <x:tableStyleElement type="firstColumn" size="1" dxfId="10"/>
-      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
-      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
-      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
-    </x:tableStyle>
-    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="7">
-      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
       <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
       <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
-      <x:tableStyleElement type="lastColumn" size="1" dxfId="2"/>
-      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="1"/>
-      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="0"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
     </x:tableStyle>
   </x:tableStyles>
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3338,7 +3288,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:4">
@@ -3346,10 +3296,10 @@
     </x:row>
     <x:row r="4" spans="2:11">
       <x:c r="B4" s="23" t="s">
-        <x:v>374</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D4" s="16"/>
       <x:c r="E4" s="16"/>
@@ -3362,41 +3312,41 @@
     </x:row>
     <x:row r="5" spans="1:12" s="5" customFormat="1">
       <x:c r="A5" s="3"/>
-      <x:c r="B5" s="65" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C5" s="78" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="79"/>
-      <x:c r="E5" s="79"/>
-      <x:c r="F5" s="79"/>
-      <x:c r="G5" s="79"/>
-      <x:c r="H5" s="79"/>
-      <x:c r="I5" s="79"/>
-      <x:c r="J5" s="79"/>
-      <x:c r="K5" s="80"/>
+      <x:c r="B5" s="64" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="77" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D5" s="78"/>
+      <x:c r="E5" s="78"/>
+      <x:c r="F5" s="78"/>
+      <x:c r="G5" s="78"/>
+      <x:c r="H5" s="78"/>
+      <x:c r="I5" s="78"/>
+      <x:c r="J5" s="78"/>
+      <x:c r="K5" s="79"/>
       <x:c r="L5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:12" s="5" customFormat="1">
       <x:c r="A6" s="3"/>
-      <x:c r="B6" s="63"/>
-      <x:c r="C6" s="76" t="s">
-        <x:v>392</x:v>
-      </x:c>
-      <x:c r="D6" s="76"/>
-      <x:c r="E6" s="76"/>
-      <x:c r="F6" s="76"/>
-      <x:c r="G6" s="76"/>
-      <x:c r="H6" s="76"/>
-      <x:c r="I6" s="76"/>
-      <x:c r="J6" s="76"/>
-      <x:c r="K6" s="77"/>
+      <x:c r="B6" s="62"/>
+      <x:c r="C6" s="75" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D6" s="75"/>
+      <x:c r="E6" s="75"/>
+      <x:c r="F6" s="75"/>
+      <x:c r="G6" s="75"/>
+      <x:c r="H6" s="75"/>
+      <x:c r="I6" s="75"/>
+      <x:c r="J6" s="75"/>
+      <x:c r="K6" s="76"/>
       <x:c r="L6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:12" s="5" customFormat="1">
       <x:c r="A7" s="3"/>
-      <x:c r="B7" s="70"/>
+      <x:c r="B7" s="69"/>
       <x:c r="C7" s="17"/>
       <x:c r="D7" s="17"/>
       <x:c r="E7" s="17"/>
@@ -3410,164 +3360,164 @@
     </x:row>
     <x:row r="8" spans="1:12" s="5" customFormat="1">
       <x:c r="A8" s="3"/>
-      <x:c r="B8" s="63" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="C8" s="76" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D8" s="76"/>
-      <x:c r="E8" s="76"/>
-      <x:c r="F8" s="76"/>
-      <x:c r="G8" s="76"/>
-      <x:c r="H8" s="76"/>
-      <x:c r="I8" s="76"/>
-      <x:c r="J8" s="76"/>
-      <x:c r="K8" s="77"/>
+      <x:c r="B8" s="62" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C8" s="75" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D8" s="75"/>
+      <x:c r="E8" s="75"/>
+      <x:c r="F8" s="75"/>
+      <x:c r="G8" s="75"/>
+      <x:c r="H8" s="75"/>
+      <x:c r="I8" s="75"/>
+      <x:c r="J8" s="75"/>
+      <x:c r="K8" s="76"/>
       <x:c r="L8" s="3"/>
     </x:row>
     <x:row r="9" spans="1:12" s="5" customFormat="1">
       <x:c r="A9" s="3"/>
-      <x:c r="B9" s="63"/>
-      <x:c r="C9" s="76" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="76"/>
-      <x:c r="E9" s="76"/>
-      <x:c r="F9" s="76"/>
-      <x:c r="G9" s="76"/>
-      <x:c r="H9" s="76"/>
-      <x:c r="I9" s="76"/>
-      <x:c r="J9" s="76"/>
-      <x:c r="K9" s="77"/>
+      <x:c r="B9" s="62"/>
+      <x:c r="C9" s="75" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D9" s="75"/>
+      <x:c r="E9" s="75"/>
+      <x:c r="F9" s="75"/>
+      <x:c r="G9" s="75"/>
+      <x:c r="H9" s="75"/>
+      <x:c r="I9" s="75"/>
+      <x:c r="J9" s="75"/>
+      <x:c r="K9" s="76"/>
       <x:c r="L9" s="3"/>
     </x:row>
     <x:row r="10" spans="1:12" s="5" customFormat="1">
       <x:c r="A10" s="3"/>
-      <x:c r="B10" s="63"/>
-      <x:c r="C10" s="76" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D10" s="76"/>
-      <x:c r="E10" s="76"/>
-      <x:c r="F10" s="76"/>
-      <x:c r="G10" s="76"/>
-      <x:c r="H10" s="76"/>
-      <x:c r="I10" s="76"/>
-      <x:c r="J10" s="76"/>
-      <x:c r="K10" s="77"/>
+      <x:c r="B10" s="62"/>
+      <x:c r="C10" s="75" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D10" s="75"/>
+      <x:c r="E10" s="75"/>
+      <x:c r="F10" s="75"/>
+      <x:c r="G10" s="75"/>
+      <x:c r="H10" s="75"/>
+      <x:c r="I10" s="75"/>
+      <x:c r="J10" s="75"/>
+      <x:c r="K10" s="76"/>
       <x:c r="L10" s="3"/>
     </x:row>
     <x:row r="11" spans="1:12" s="5" customFormat="1">
       <x:c r="A11" s="3"/>
-      <x:c r="B11" s="63"/>
-      <x:c r="C11" s="76" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D11" s="76"/>
-      <x:c r="E11" s="76"/>
-      <x:c r="F11" s="76"/>
-      <x:c r="G11" s="76"/>
-      <x:c r="H11" s="76"/>
-      <x:c r="I11" s="76"/>
-      <x:c r="J11" s="76"/>
-      <x:c r="K11" s="77"/>
+      <x:c r="B11" s="62"/>
+      <x:c r="C11" s="75" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D11" s="75"/>
+      <x:c r="E11" s="75"/>
+      <x:c r="F11" s="75"/>
+      <x:c r="G11" s="75"/>
+      <x:c r="H11" s="75"/>
+      <x:c r="I11" s="75"/>
+      <x:c r="J11" s="75"/>
+      <x:c r="K11" s="76"/>
       <x:c r="L11" s="3"/>
     </x:row>
     <x:row r="12" spans="1:12" s="5" customFormat="1">
       <x:c r="A12" s="3"/>
-      <x:c r="B12" s="63"/>
-      <x:c r="C12" s="76" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D12" s="76"/>
-      <x:c r="E12" s="76"/>
-      <x:c r="F12" s="76"/>
-      <x:c r="G12" s="76"/>
-      <x:c r="H12" s="76"/>
-      <x:c r="I12" s="76"/>
-      <x:c r="J12" s="76"/>
-      <x:c r="K12" s="77"/>
+      <x:c r="B12" s="62"/>
+      <x:c r="C12" s="75" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D12" s="75"/>
+      <x:c r="E12" s="75"/>
+      <x:c r="F12" s="75"/>
+      <x:c r="G12" s="75"/>
+      <x:c r="H12" s="75"/>
+      <x:c r="I12" s="75"/>
+      <x:c r="J12" s="75"/>
+      <x:c r="K12" s="76"/>
       <x:c r="L12" s="3"/>
     </x:row>
     <x:row r="13" spans="1:12" s="5" customFormat="1">
       <x:c r="A13" s="3"/>
-      <x:c r="B13" s="63"/>
-      <x:c r="C13" s="76" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D13" s="76"/>
-      <x:c r="E13" s="76"/>
-      <x:c r="F13" s="76" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="G13" s="76"/>
-      <x:c r="H13" s="76"/>
-      <x:c r="I13" s="76"/>
-      <x:c r="J13" s="76"/>
-      <x:c r="K13" s="77"/>
+      <x:c r="B13" s="62"/>
+      <x:c r="C13" s="75" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="D13" s="75"/>
+      <x:c r="E13" s="75"/>
+      <x:c r="F13" s="75" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="G13" s="75"/>
+      <x:c r="H13" s="75"/>
+      <x:c r="I13" s="75"/>
+      <x:c r="J13" s="75"/>
+      <x:c r="K13" s="76"/>
       <x:c r="L13" s="3"/>
     </x:row>
     <x:row r="14" spans="1:12" s="5" customFormat="1">
       <x:c r="A14" s="3"/>
-      <x:c r="B14" s="63"/>
-      <x:c r="C14" s="76"/>
-      <x:c r="D14" s="76"/>
-      <x:c r="E14" s="76"/>
-      <x:c r="F14" s="76" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="G14" s="76"/>
-      <x:c r="H14" s="76"/>
-      <x:c r="I14" s="76"/>
-      <x:c r="J14" s="76"/>
-      <x:c r="K14" s="77"/>
+      <x:c r="B14" s="62"/>
+      <x:c r="C14" s="75"/>
+      <x:c r="D14" s="75"/>
+      <x:c r="E14" s="75"/>
+      <x:c r="F14" s="75" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G14" s="75"/>
+      <x:c r="H14" s="75"/>
+      <x:c r="I14" s="75"/>
+      <x:c r="J14" s="75"/>
+      <x:c r="K14" s="76"/>
       <x:c r="L14" s="3"/>
     </x:row>
     <x:row r="15" spans="1:12" s="5" customFormat="1">
       <x:c r="A15" s="3"/>
-      <x:c r="B15" s="63"/>
-      <x:c r="C15" s="76" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="D15" s="76"/>
-      <x:c r="E15" s="76"/>
-      <x:c r="F15" s="76" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="G15" s="76"/>
-      <x:c r="H15" s="76"/>
-      <x:c r="I15" s="76"/>
-      <x:c r="J15" s="76"/>
-      <x:c r="K15" s="77"/>
+      <x:c r="B15" s="62"/>
+      <x:c r="C15" s="75" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="D15" s="75"/>
+      <x:c r="E15" s="75"/>
+      <x:c r="F15" s="75" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G15" s="75"/>
+      <x:c r="H15" s="75"/>
+      <x:c r="I15" s="75"/>
+      <x:c r="J15" s="75"/>
+      <x:c r="K15" s="76"/>
       <x:c r="L15" s="3"/>
     </x:row>
     <x:row r="16" spans="1:12" s="5" customFormat="1">
       <x:c r="A16" s="3"/>
-      <x:c r="B16" s="70"/>
-      <x:c r="C16" s="74"/>
-      <x:c r="D16" s="74"/>
-      <x:c r="E16" s="74"/>
-      <x:c r="F16" s="74" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G16" s="74"/>
-      <x:c r="H16" s="74"/>
-      <x:c r="I16" s="74"/>
-      <x:c r="J16" s="74"/>
-      <x:c r="K16" s="75"/>
+      <x:c r="B16" s="69"/>
+      <x:c r="C16" s="73"/>
+      <x:c r="D16" s="73"/>
+      <x:c r="E16" s="73"/>
+      <x:c r="F16" s="73" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G16" s="73"/>
+      <x:c r="H16" s="73"/>
+      <x:c r="I16" s="73"/>
+      <x:c r="J16" s="73"/>
+      <x:c r="K16" s="74"/>
       <x:c r="L16" s="3"/>
     </x:row>
     <x:row r="17" spans="1:12" s="5" customFormat="1">
       <x:c r="A17" s="3"/>
-      <x:c r="B17" s="69" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C17" s="71" t="s">
-        <x:v>352</x:v>
+      <x:c r="B17" s="68" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C17" s="70" t="s">
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E17" s="19"/>
       <x:c r="F17" s="19"/>
@@ -3580,10 +3530,10 @@
     </x:row>
     <x:row r="18" spans="1:12" s="5" customFormat="1">
       <x:c r="A18" s="3"/>
-      <x:c r="B18" s="63"/>
-      <x:c r="C18" s="72"/>
+      <x:c r="B18" s="62"/>
+      <x:c r="C18" s="71"/>
       <x:c r="D18" s="17" t="s">
-        <x:v>115</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E18" s="17"/>
       <x:c r="F18" s="17"/>
@@ -3596,12 +3546,12 @@
     </x:row>
     <x:row r="19" spans="1:12" s="5" customFormat="1">
       <x:c r="A19" s="3"/>
-      <x:c r="B19" s="63"/>
-      <x:c r="C19" s="71" t="s">
-        <x:v>267</x:v>
+      <x:c r="B19" s="62"/>
+      <x:c r="C19" s="70" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="19"/>
       <x:c r="F19" s="19"/>
@@ -3614,10 +3564,10 @@
     </x:row>
     <x:row r="20" spans="1:12" s="5" customFormat="1">
       <x:c r="A20" s="3"/>
-      <x:c r="B20" s="63"/>
-      <x:c r="C20" s="73"/>
+      <x:c r="B20" s="62"/>
+      <x:c r="C20" s="72"/>
       <x:c r="D20" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E20" s="10"/>
       <x:c r="F20" s="10"/>
@@ -3630,10 +3580,10 @@
     </x:row>
     <x:row r="21" spans="1:12" s="5" customFormat="1">
       <x:c r="A21" s="3"/>
-      <x:c r="B21" s="70"/>
-      <x:c r="C21" s="72"/>
+      <x:c r="B21" s="69"/>
+      <x:c r="C21" s="71"/>
       <x:c r="D21" s="17" t="s">
-        <x:v>127</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E21" s="17"/>
       <x:c r="F21" s="17"/>
@@ -3645,14 +3595,14 @@
       <x:c r="L21" s="3"/>
     </x:row>
     <x:row r="22" spans="2:11">
-      <x:c r="B22" s="63" t="s">
-        <x:v>250</x:v>
+      <x:c r="B22" s="62" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C22" s="10" t="s">
-        <x:v>381</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>284</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E22" s="10"/>
       <x:c r="F22" s="10"/>
@@ -3663,12 +3613,12 @@
       <x:c r="K22" s="11"/>
     </x:row>
     <x:row r="23" spans="2:11">
-      <x:c r="B23" s="70"/>
+      <x:c r="B23" s="69"/>
       <x:c r="C23" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D23" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E23" s="17"/>
       <x:c r="F23" s="17"/>
@@ -3679,11 +3629,11 @@
       <x:c r="K23" s="18"/>
     </x:row>
     <x:row r="24" spans="2:11" ht="17.100000000000001" customHeight="1">
-      <x:c r="B24" s="63" t="s">
-        <x:v>274</x:v>
+      <x:c r="B24" s="62" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C24" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D24" s="10"/>
       <x:c r="E24" s="10"/>
@@ -3695,9 +3645,9 @@
       <x:c r="K24" s="11"/>
     </x:row>
     <x:row r="25" spans="2:11">
-      <x:c r="B25" s="63"/>
+      <x:c r="B25" s="62"/>
       <x:c r="C25" s="10" t="s">
-        <x:v>0</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D25" s="10"/>
       <x:c r="E25" s="10"/>
@@ -3709,9 +3659,9 @@
       <x:c r="K25" s="11"/>
     </x:row>
     <x:row r="26" spans="2:11">
-      <x:c r="B26" s="70"/>
+      <x:c r="B26" s="69"/>
       <x:c r="C26" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D26" s="17"/>
       <x:c r="E26" s="17"/>
@@ -3723,11 +3673,11 @@
       <x:c r="K26" s="18"/>
     </x:row>
     <x:row r="27" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B27" s="63" t="s">
-        <x:v>349</x:v>
+      <x:c r="B27" s="62" t="s">
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C27" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D27" s="10"/>
       <x:c r="E27" s="10"/>
@@ -3739,9 +3689,9 @@
       <x:c r="K27" s="11"/>
     </x:row>
     <x:row r="28" spans="2:11">
-      <x:c r="B28" s="63"/>
+      <x:c r="B28" s="62"/>
       <x:c r="C28" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D28" s="10"/>
       <x:c r="E28" s="10"/>
@@ -3753,9 +3703,9 @@
       <x:c r="K28" s="11"/>
     </x:row>
     <x:row r="29" spans="2:11">
-      <x:c r="B29" s="63"/>
+      <x:c r="B29" s="62"/>
       <x:c r="C29" s="10" t="s">
-        <x:v>394</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D29" s="10"/>
       <x:c r="E29" s="10"/>
@@ -3767,9 +3717,9 @@
       <x:c r="K29" s="11"/>
     </x:row>
     <x:row r="30" spans="2:11">
-      <x:c r="B30" s="64"/>
+      <x:c r="B30" s="63"/>
       <x:c r="C30" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D30" s="13"/>
       <x:c r="E30" s="13"/>
@@ -3782,10 +3732,10 @@
     </x:row>
     <x:row r="33" spans="2:11">
       <x:c r="B33" s="23" t="s">
-        <x:v>385</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C33" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D33" s="16"/>
       <x:c r="E33" s="16"/>
@@ -3798,7 +3748,7 @@
     </x:row>
     <x:row r="34" spans="2:11">
       <x:c r="B34" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C34" s="16"/>
       <x:c r="D34" s="16"/>
@@ -3812,7 +3762,7 @@
     </x:row>
     <x:row r="35" spans="2:11">
       <x:c r="B35" s="12" t="s">
-        <x:v>283</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C35" s="13"/>
       <x:c r="D35" s="13"/>
@@ -3826,10 +3776,10 @@
     </x:row>
     <x:row r="38" spans="2:11">
       <x:c r="B38" s="23" t="s">
-        <x:v>267</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C38" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D38" s="16"/>
       <x:c r="E38" s="16"/>
@@ -3842,7 +3792,7 @@
     </x:row>
     <x:row r="39" spans="2:11">
       <x:c r="B39" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C39" s="16"/>
       <x:c r="D39" s="16"/>
@@ -3856,7 +3806,7 @@
     </x:row>
     <x:row r="40" spans="2:11">
       <x:c r="B40" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C40" s="10"/>
       <x:c r="D40" s="10"/>
@@ -3870,7 +3820,7 @@
     </x:row>
     <x:row r="41" spans="2:11">
       <x:c r="B41" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C41" s="10"/>
       <x:c r="D41" s="10"/>
@@ -3884,7 +3834,7 @@
     </x:row>
     <x:row r="42" spans="2:11">
       <x:c r="B42" s="9" t="s">
-        <x:v>135</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C42" s="10"/>
       <x:c r="D42" s="10"/>
@@ -3898,7 +3848,7 @@
     </x:row>
     <x:row r="43" spans="2:11">
       <x:c r="B43" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C43" s="10"/>
       <x:c r="D43" s="10"/>
@@ -3912,7 +3862,7 @@
     </x:row>
     <x:row r="44" spans="2:11">
       <x:c r="B44" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="10"/>
       <x:c r="D44" s="10"/>
@@ -3926,7 +3876,7 @@
     </x:row>
     <x:row r="45" spans="2:11">
       <x:c r="B45" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C45" s="13"/>
       <x:c r="D45" s="13"/>
@@ -3940,7 +3890,7 @@
     </x:row>
     <x:row r="47" spans="2:11">
       <x:c r="B47" s="7" t="s">
-        <x:v>380</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C47" s="16"/>
       <x:c r="D47" s="16"/>
@@ -3954,7 +3904,7 @@
     </x:row>
     <x:row r="48" spans="2:11">
       <x:c r="B48" s="9" t="s">
-        <x:v>396</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C48" s="10"/>
       <x:c r="D48" s="10"/>
@@ -3968,7 +3918,7 @@
     </x:row>
     <x:row r="49" spans="2:11">
       <x:c r="B49" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C49" s="13"/>
       <x:c r="D49" s="13"/>
@@ -3982,7 +3932,7 @@
     </x:row>
     <x:row r="51" spans="2:11">
       <x:c r="B51" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C51" s="16"/>
       <x:c r="D51" s="16"/>
@@ -3996,7 +3946,7 @@
     </x:row>
     <x:row r="52" spans="2:11">
       <x:c r="B52" s="9" t="s">
-        <x:v>390</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C52" s="10"/>
       <x:c r="D52" s="10"/>
@@ -4010,7 +3960,7 @@
     </x:row>
     <x:row r="53" spans="2:11">
       <x:c r="B53" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C53" s="13"/>
       <x:c r="D53" s="13"/>
@@ -4024,10 +3974,10 @@
     </x:row>
     <x:row r="56" spans="2:11">
       <x:c r="B56" s="23" t="s">
-        <x:v>388</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C56" s="7" t="s">
-        <x:v>308</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D56" s="16"/>
       <x:c r="E56" s="16"/>
@@ -4040,7 +3990,7 @@
     </x:row>
     <x:row r="57" spans="2:11">
       <x:c r="B57" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C57" s="16"/>
       <x:c r="D57" s="16"/>
@@ -4054,7 +4004,7 @@
     </x:row>
     <x:row r="58" spans="2:11">
       <x:c r="B58" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C58" s="10"/>
       <x:c r="D58" s="10"/>
@@ -4068,7 +4018,7 @@
     </x:row>
     <x:row r="59" spans="2:11">
       <x:c r="B59" s="12" t="s">
-        <x:v>395</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C59" s="13"/>
       <x:c r="D59" s="13"/>
@@ -4082,7 +4032,7 @@
     </x:row>
     <x:row r="62" spans="2:11">
       <x:c r="B62" s="25" t="s">
-        <x:v>356</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C62" s="26"/>
       <x:c r="D62" s="26"/>
@@ -4095,14 +4045,14 @@
       <x:c r="K62" s="15"/>
     </x:row>
     <x:row r="63" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B63" s="65" t="s">
-        <x:v>96</x:v>
+      <x:c r="B63" s="64" t="s">
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C63" s="28" t="s">
-        <x:v>255</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D63" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E63" s="16"/>
       <x:c r="F63" s="16"/>
@@ -4113,12 +4063,12 @@
       <x:c r="K63" s="8"/>
     </x:row>
     <x:row r="64" spans="2:11">
-      <x:c r="B64" s="66"/>
+      <x:c r="B64" s="65"/>
       <x:c r="C64" s="21" t="s">
-        <x:v>377</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E64" s="10"/>
       <x:c r="F64" s="10"/>
@@ -4129,12 +4079,12 @@
       <x:c r="K64" s="11"/>
     </x:row>
     <x:row r="65" spans="2:11">
-      <x:c r="B65" s="66"/>
+      <x:c r="B65" s="65"/>
       <x:c r="C65" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D65" s="10" t="s">
-        <x:v>305</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E65" s="10"/>
       <x:c r="F65" s="10"/>
@@ -4145,9 +4095,9 @@
       <x:c r="K65" s="11"/>
     </x:row>
     <x:row r="66" spans="2:11">
-      <x:c r="B66" s="66"/>
+      <x:c r="B66" s="65"/>
       <x:c r="C66" s="21" t="s">
-        <x:v>238</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D66" s="10"/>
       <x:c r="E66" s="10"/>
@@ -4159,9 +4109,9 @@
       <x:c r="K66" s="11"/>
     </x:row>
     <x:row r="67" spans="2:11">
-      <x:c r="B67" s="67"/>
+      <x:c r="B67" s="66"/>
       <x:c r="C67" s="24" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D67" s="17"/>
       <x:c r="E67" s="17"/>
@@ -4173,14 +4123,14 @@
       <x:c r="K67" s="18"/>
     </x:row>
     <x:row r="68" spans="2:11">
-      <x:c r="B68" s="68" t="s">
-        <x:v>327</x:v>
+      <x:c r="B68" s="67" t="s">
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>322</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D68" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E68" s="10"/>
       <x:c r="F68" s="10"/>
@@ -4191,12 +4141,12 @@
       <x:c r="K68" s="11"/>
     </x:row>
     <x:row r="69" spans="2:11">
-      <x:c r="B69" s="67"/>
+      <x:c r="B69" s="66"/>
       <x:c r="C69" s="24" t="s">
-        <x:v>266</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D69" s="17" t="s">
-        <x:v>216</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E69" s="17"/>
       <x:c r="F69" s="17"/>
@@ -4207,14 +4157,14 @@
       <x:c r="K69" s="18"/>
     </x:row>
     <x:row r="70" spans="2:11">
-      <x:c r="B70" s="68" t="s">
-        <x:v>371</x:v>
+      <x:c r="B70" s="67" t="s">
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C70" s="21" t="s">
-        <x:v>357</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D70" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E70" s="10"/>
       <x:c r="F70" s="10"/>
@@ -4225,10 +4175,10 @@
       <x:c r="K70" s="11"/>
     </x:row>
     <x:row r="71" spans="2:11">
-      <x:c r="B71" s="67"/>
+      <x:c r="B71" s="66"/>
       <x:c r="C71" s="24"/>
       <x:c r="D71" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E71" s="17"/>
       <x:c r="F71" s="17"/>
@@ -4240,7 +4190,7 @@
     </x:row>
     <x:row r="72" spans="2:11">
       <x:c r="B72" s="27" t="s">
-        <x:v>9</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C72" s="17"/>
       <x:c r="D72" s="17"/>
@@ -4254,7 +4204,7 @@
     </x:row>
     <x:row r="73" spans="2:11">
       <x:c r="B73" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C73" s="13"/>
       <x:c r="D73" s="13"/>
@@ -4268,7 +4218,7 @@
     </x:row>
     <x:row r="75" spans="2:11">
       <x:c r="B75" s="25" t="s">
-        <x:v>183</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C75" s="26"/>
       <x:c r="D75" s="26"/>
@@ -4282,7 +4232,7 @@
     </x:row>
     <x:row r="76" spans="2:11">
       <x:c r="B76" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C76" s="16"/>
       <x:c r="D76" s="16"/>
@@ -4296,7 +4246,7 @@
     </x:row>
     <x:row r="77" spans="2:11">
       <x:c r="B77" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C77" s="10"/>
       <x:c r="D77" s="10"/>
@@ -4310,7 +4260,7 @@
     </x:row>
     <x:row r="78" spans="2:11">
       <x:c r="B78" s="9" t="s">
-        <x:v>133</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C78" s="10"/>
       <x:c r="D78" s="10"/>
@@ -4324,7 +4274,7 @@
     </x:row>
     <x:row r="79" spans="2:11">
       <x:c r="B79" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C79" s="13"/>
       <x:c r="D79" s="13"/>
@@ -4338,7 +4288,7 @@
     </x:row>
     <x:row r="81" spans="2:11">
       <x:c r="B81" s="25" t="s">
-        <x:v>5</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C81" s="26"/>
       <x:c r="D81" s="26"/>
@@ -4352,10 +4302,10 @@
     </x:row>
     <x:row r="84" spans="2:11">
       <x:c r="B84" s="23" t="s">
-        <x:v>330</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C84" s="26" t="s">
-        <x:v>17</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D84" s="26"/>
       <x:c r="E84" s="26"/>
@@ -4368,10 +4318,10 @@
     </x:row>
     <x:row r="85" spans="2:11">
       <x:c r="B85" s="23" t="s">
-        <x:v>29</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C85" s="26" t="s">
-        <x:v>279</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D85" s="26"/>
       <x:c r="E85" s="26"/>
@@ -4384,10 +4334,10 @@
     </x:row>
     <x:row r="88" spans="2:11">
       <x:c r="B88" s="23" t="s">
-        <x:v>268</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C88" s="26" t="s">
-        <x:v>198</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D88" s="26"/>
       <x:c r="E88" s="26"/>
@@ -4400,10 +4350,10 @@
     </x:row>
     <x:row r="89" spans="2:11">
       <x:c r="B89" s="29" t="s">
-        <x:v>353</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C89" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D89" s="16"/>
       <x:c r="E89" s="16"/>
@@ -4416,10 +4366,10 @@
     </x:row>
     <x:row r="90" spans="2:11">
       <x:c r="B90" s="30" t="s">
-        <x:v>386</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C90" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D90" s="10"/>
       <x:c r="E90" s="10"/>
@@ -4432,10 +4382,10 @@
     </x:row>
     <x:row r="91" spans="2:11">
       <x:c r="B91" s="30" t="s">
-        <x:v>253</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C91" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D91" s="10"/>
       <x:c r="E91" s="10"/>
@@ -4448,10 +4398,10 @@
     </x:row>
     <x:row r="92" spans="2:11">
       <x:c r="B92" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C92" s="10" t="s">
-        <x:v>367</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D92" s="10"/>
       <x:c r="E92" s="10"/>
@@ -4464,10 +4414,10 @@
     </x:row>
     <x:row r="93" spans="2:11">
       <x:c r="B93" s="30" t="s">
-        <x:v>244</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C93" s="10" t="s">
-        <x:v>276</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D93" s="10"/>
       <x:c r="E93" s="10"/>
@@ -4481,7 +4431,7 @@
     <x:row r="94" spans="2:11">
       <x:c r="B94" s="30"/>
       <x:c r="C94" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D94" s="10"/>
       <x:c r="E94" s="10"/>
@@ -4495,7 +4445,7 @@
     <x:row r="95" spans="2:11">
       <x:c r="B95" s="30"/>
       <x:c r="C95" s="10" t="s">
-        <x:v>302</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D95" s="10"/>
       <x:c r="E95" s="10"/>
@@ -4508,10 +4458,10 @@
     </x:row>
     <x:row r="96" spans="2:11">
       <x:c r="B96" s="30" t="s">
-        <x:v>260</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C96" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D96" s="10"/>
       <x:c r="E96" s="10"/>
@@ -4525,7 +4475,7 @@
     <x:row r="97" spans="2:11">
       <x:c r="B97" s="30"/>
       <x:c r="C97" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D97" s="10"/>
       <x:c r="E97" s="10"/>
@@ -4539,7 +4489,7 @@
     <x:row r="98" spans="2:11">
       <x:c r="B98" s="30"/>
       <x:c r="C98" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D98" s="10"/>
       <x:c r="E98" s="10"/>
@@ -4552,10 +4502,10 @@
     </x:row>
     <x:row r="99" spans="2:11">
       <x:c r="B99" s="30" t="s">
-        <x:v>245</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C99" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D99" s="10"/>
       <x:c r="E99" s="10"/>
@@ -4569,7 +4519,7 @@
     <x:row r="100" spans="2:11">
       <x:c r="B100" s="30"/>
       <x:c r="C100" s="10" t="s">
-        <x:v>281</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D100" s="10"/>
       <x:c r="E100" s="10"/>
@@ -4582,10 +4532,10 @@
     </x:row>
     <x:row r="101" spans="2:11">
       <x:c r="B101" s="30" t="s">
-        <x:v>373</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C101" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D101" s="10"/>
       <x:c r="E101" s="10"/>
@@ -4597,11 +4547,11 @@
       <x:c r="K101" s="11"/>
     </x:row>
     <x:row r="102" spans="2:11">
-      <x:c r="B102" s="63" t="s">
-        <x:v>240</x:v>
+      <x:c r="B102" s="62" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C102" s="10" t="s">
-        <x:v>275</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D102" s="10"/>
       <x:c r="E102" s="10"/>
@@ -4613,9 +4563,9 @@
       <x:c r="K102" s="11"/>
     </x:row>
     <x:row r="103" spans="2:11">
-      <x:c r="B103" s="63"/>
+      <x:c r="B103" s="62"/>
       <x:c r="C103" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D103" s="10"/>
       <x:c r="E103" s="10"/>
@@ -4627,11 +4577,11 @@
       <x:c r="K103" s="11"/>
     </x:row>
     <x:row r="104" spans="2:11">
-      <x:c r="B104" s="63" t="s">
-        <x:v>232</x:v>
+      <x:c r="B104" s="62" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C104" s="10" t="s">
-        <x:v>295</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D104" s="10"/>
       <x:c r="E104" s="10"/>
@@ -4643,9 +4593,9 @@
       <x:c r="K104" s="11"/>
     </x:row>
     <x:row r="105" spans="2:11">
-      <x:c r="B105" s="63"/>
+      <x:c r="B105" s="62"/>
       <x:c r="C105" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D105" s="10"/>
       <x:c r="E105" s="10"/>
@@ -4658,10 +4608,10 @@
     </x:row>
     <x:row r="106" spans="2:11">
       <x:c r="B106" s="31" t="s">
-        <x:v>375</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C106" s="13" t="s">
-        <x:v>3</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D106" s="13"/>
       <x:c r="E106" s="13"/>
@@ -4724,59 +4674,59 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.75">
       <x:c r="A1" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="32" t="s">
-        <x:v>267</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>301</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B3" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B4" s="11"/>
       <x:c r="D4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="30" t="s">
-        <x:v>251</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E5" s="21"/>
     </x:row>
     <x:row r="6" spans="1:5" s="6" customFormat="1">
       <x:c r="A6" s="53" t="s">
-        <x:v>226</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="54" t="s">
-        <x:v>400</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="E6" s="21"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="55" t="s">
-        <x:v>398</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B7" s="56" t="s">
         <x:v>399</x:v>
@@ -4785,7 +4735,7 @@
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="D8" s="2"/>
@@ -4795,7 +4745,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>337</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D9" s="4"/>
     </x:row>
@@ -4804,7 +4754,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D10" s="4"/>
     </x:row>
@@ -4813,17 +4763,17 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C11" s="2"/>
       <x:c r="G11" s="43"/>
     </x:row>
     <x:row r="12" spans="1:3" s="4" customFormat="1" ht="16.75">
       <x:c r="A12" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="14" t="s">
-        <x:v>287</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C12" s="2"/>
     </x:row>
@@ -4837,35 +4787,35 @@
     </x:row>
     <x:row r="15" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A15" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="32" t="s">
-        <x:v>364</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2" s="2" customFormat="1">
       <x:c r="A16" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:2" s="2" customFormat="1">
       <x:c r="A17" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B17" s="18"/>
     </x:row>
     <x:row r="18" spans="1:2" s="2" customFormat="1">
       <x:c r="A18" s="34" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B18" s="18" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2" s="2" customFormat="1">
       <x:c r="A19" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B19" s="11"/>
     </x:row>
@@ -4874,7 +4824,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B20" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2" s="2" customFormat="1">
@@ -4882,15 +4832,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B21" s="18" t="s">
-        <x:v>321</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A22" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B22" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2" s="2" customFormat="1">
@@ -4904,39 +4854,39 @@
     </x:row>
     <x:row r="25" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A25" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B25" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2" s="2" customFormat="1">
       <x:c r="A26" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>124</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2" s="2" customFormat="1">
       <x:c r="A27" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2" s="2" customFormat="1">
       <x:c r="A28" s="34" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2" s="2" customFormat="1">
       <x:c r="A29" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B29" s="11"/>
     </x:row>
@@ -4945,7 +4895,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B30" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2" s="2" customFormat="1">
@@ -4953,15 +4903,15 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B31" s="18" t="s">
-        <x:v>321</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A32" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B32" s="14" t="s">
-        <x:v>393</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" s="2" customFormat="1">
@@ -4974,133 +4924,133 @@
     </x:row>
     <x:row r="35" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A35" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B35" s="32" t="s">
-        <x:v>388</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2" s="3" customFormat="1">
       <x:c r="A36" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B36" s="11" t="s">
-        <x:v>298</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2" s="3" customFormat="1">
       <x:c r="A37" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B37" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2" s="3" customFormat="1">
       <x:c r="A38" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B38" s="11"/>
     </x:row>
     <x:row r="39" spans="1:2" s="3" customFormat="1">
       <x:c r="A39" s="30" t="s">
-        <x:v>251</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B39" s="54" t="s">
-        <x:v>358</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2" s="3" customFormat="1">
       <x:c r="A40" s="30" t="s">
-        <x:v>231</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B40" s="54" t="s">
-        <x:v>326</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" s="3" customFormat="1">
       <x:c r="A41" s="30" t="s">
-        <x:v>370</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B41" s="54" t="s">
-        <x:v>224</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2" s="3" customFormat="1">
       <x:c r="A42" s="30" t="s">
-        <x:v>97</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B42" s="54" t="s">
-        <x:v>147</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" s="3" customFormat="1">
       <x:c r="A43" s="30" t="s">
-        <x:v>84</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B43" s="54" t="s">
-        <x:v>141</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2" s="3" customFormat="1">
       <x:c r="A44" s="30" t="s">
-        <x:v>322</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B44" s="54" t="s">
-        <x:v>142</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2" s="3" customFormat="1">
       <x:c r="A45" s="30" t="s">
-        <x:v>266</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B45" s="54" t="s">
-        <x:v>140</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2" s="3" customFormat="1">
       <x:c r="A46" s="30" t="s">
-        <x:v>357</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B46" s="11" t="s">
-        <x:v>221</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2" s="3" customFormat="1">
       <x:c r="A47" s="30" t="s">
-        <x:v>31</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B47" s="11" t="s">
-        <x:v>150</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2" s="3" customFormat="1">
       <x:c r="A48" s="30" t="s">
-        <x:v>76</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B48" s="54" t="s">
-        <x:v>285</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2" s="3" customFormat="1">
       <x:c r="A49" s="30" t="s">
-        <x:v>368</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B49" s="54" t="s">
-        <x:v>319</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2" s="3" customFormat="1">
       <x:c r="A50" s="34" t="s">
-        <x:v>154</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B50" s="18" t="s">
-        <x:v>289</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2" s="3" customFormat="1">
       <x:c r="A51" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B51" s="11"/>
     </x:row>
@@ -5109,7 +5059,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B52" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2" s="3" customFormat="1">
@@ -5117,25 +5067,25 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B53" s="11" t="s">
-        <x:v>288</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2" s="3" customFormat="1">
       <x:c r="A54" s="30"/>
       <x:c r="B54" s="11" t="s">
-        <x:v>310</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2" s="3" customFormat="1">
       <x:c r="A55" s="30"/>
       <x:c r="B55" s="11" t="s">
-        <x:v>118</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2" s="3" customFormat="1">
       <x:c r="A56" s="30"/>
       <x:c r="B56" s="11" t="s">
-        <x:v>293</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2" s="3" customFormat="1">
@@ -5143,15 +5093,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B57" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A58" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B58" s="14" t="s">
-        <x:v>171</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2" s="3" customFormat="1">
@@ -5163,45 +5113,45 @@
     </x:row>
     <x:row r="61" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A61" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B61" s="32" t="s">
-        <x:v>164</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2" s="2" customFormat="1">
       <x:c r="A62" s="44" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B62" s="45" t="s">
-        <x:v>315</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2" s="2" customFormat="1">
       <x:c r="A63" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B63" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2" s="2" customFormat="1">
       <x:c r="A64" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B64" s="11"/>
     </x:row>
     <x:row r="65" spans="1:2" s="2" customFormat="1">
       <x:c r="A65" s="34" t="s">
-        <x:v>251</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B65" s="18" t="s">
-        <x:v>358</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2" s="2" customFormat="1">
       <x:c r="A66" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B66" s="11"/>
     </x:row>
@@ -5210,7 +5160,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B67" s="11" t="s">
-        <x:v>219</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2" s="2" customFormat="1">
@@ -5218,15 +5168,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B68" s="18" t="s">
-        <x:v>304</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A69" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B69" s="14" t="s">
-        <x:v>294</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1" s="2" customFormat="1">
@@ -5237,45 +5187,45 @@
     </x:row>
     <x:row r="72" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A72" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B72" s="32" t="s">
-        <x:v>143</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2" s="2" customFormat="1">
       <x:c r="A73" s="44" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B73" s="45" t="s">
-        <x:v>119</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2" s="2" customFormat="1">
       <x:c r="A74" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B74" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2" s="2" customFormat="1">
       <x:c r="A75" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B75" s="11"/>
     </x:row>
     <x:row r="76" spans="1:2" s="2" customFormat="1">
       <x:c r="A76" s="34" t="s">
-        <x:v>346</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B76" s="18" t="s">
-        <x:v>147</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2" s="2" customFormat="1">
       <x:c r="A77" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B77" s="11"/>
     </x:row>
@@ -5284,7 +5234,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B78" s="11" t="s">
-        <x:v>170</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2" s="2" customFormat="1">
@@ -5292,15 +5242,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B79" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A80" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B80" s="14" t="s">
-        <x:v>290</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:1" s="2" customFormat="1">
@@ -5311,53 +5261,53 @@
     </x:row>
     <x:row r="83" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A83" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B83" s="32" t="s">
-        <x:v>165</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2" s="2" customFormat="1">
       <x:c r="A84" s="44" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B84" s="45" t="s">
-        <x:v>292</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2" s="2" customFormat="1">
       <x:c r="A85" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B85" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2" s="2" customFormat="1">
       <x:c r="A86" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B86" s="11"/>
     </x:row>
     <x:row r="87" spans="1:2" s="2" customFormat="1">
       <x:c r="A87" s="30" t="s">
-        <x:v>237</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B87" s="11" t="s">
-        <x:v>326</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2" s="2" customFormat="1">
       <x:c r="A88" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B88" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2" s="2" customFormat="1">
       <x:c r="A89" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B89" s="11"/>
     </x:row>
@@ -5366,7 +5316,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B90" s="11" t="s">
-        <x:v>286</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2" s="2" customFormat="1">
@@ -5374,15 +5324,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B91" s="18" t="s">
-        <x:v>121</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" s="2" customFormat="1" ht="16.75">
       <x:c r="A92" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B92" s="14" t="s">
-        <x:v>136</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:1" s="2" customFormat="1">
@@ -5394,45 +5344,45 @@
     </x:row>
     <x:row r="95" spans="1:2" ht="16.75">
       <x:c r="A95" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B95" s="32" t="s">
-        <x:v>380</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B96" s="11" t="s">
-        <x:v>303</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B97" s="18" t="s">
-        <x:v>273</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B98" s="11"/>
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="34" t="s">
-        <x:v>346</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B99" s="18" t="s">
-        <x:v>156</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B100" s="11"/>
     </x:row>
@@ -5441,7 +5391,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B101" s="11" t="s">
-        <x:v>217</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2">
@@ -5449,13 +5399,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B102" s="11" t="s">
-        <x:v>307</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
       <x:c r="A103" s="30"/>
       <x:c r="B103" s="11" t="s">
-        <x:v>223</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2" s="2" customFormat="1">
@@ -5463,15 +5413,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B104" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2" ht="16.75">
       <x:c r="A105" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B105" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:3" s="4" customFormat="1">
@@ -5484,53 +5434,53 @@
     </x:row>
     <x:row r="108" spans="1:2" ht="16.75">
       <x:c r="A108" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B108" s="32" t="s">
-        <x:v>173</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2">
       <x:c r="A109" s="30" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B109" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B110" s="18" t="s">
-        <x:v>273</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B111" s="11"/>
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" s="30" t="s">
-        <x:v>251</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B112" s="11" t="s">
-        <x:v>334</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="34" t="s">
-        <x:v>346</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B113" s="18" t="s">
-        <x:v>156</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B114" s="11"/>
     </x:row>
@@ -5539,7 +5489,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B115" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:2">
@@ -5547,13 +5497,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B116" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2">
       <x:c r="A117" s="30"/>
       <x:c r="B117" s="11" t="s">
-        <x:v>159</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2">
@@ -5561,15 +5511,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B118" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:2" ht="16.75">
       <x:c r="A119" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B119" s="14" t="s">
-        <x:v>389</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:2">
@@ -5580,53 +5530,53 @@
     </x:row>
     <x:row r="122" spans="1:2" ht="16.75">
       <x:c r="A122" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B122" s="32" t="s">
-        <x:v>271</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" s="44" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B123" s="45" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="34" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B124" s="18" t="s">
-        <x:v>273</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="30" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B125" s="11"/>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="30" t="s">
-        <x:v>259</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B126" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="34" t="s">
-        <x:v>343</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B127" s="18" t="s">
-        <x:v>148</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="30" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B128" s="11"/>
     </x:row>
@@ -5635,7 +5585,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B129" s="11" t="s">
-        <x:v>351</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:2">
@@ -5643,15 +5593,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B130" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2" ht="16.75">
       <x:c r="A131" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B131" s="14" t="s">
-        <x:v>280</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:2">
@@ -5662,43 +5612,43 @@
     </x:row>
     <x:row r="134" spans="1:2" ht="16.75">
       <x:c r="A134" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B134" s="32" t="s">
-        <x:v>318</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B135" s="11"/>
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" s="49" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B136" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" s="46" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B137" s="11"/>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="49" t="s">
-        <x:v>58</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B138" s="18" t="s">
-        <x:v>58</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B139" s="11"/>
     </x:row>
@@ -5707,7 +5657,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B140" s="11" t="s">
-        <x:v>191</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:2">
@@ -5715,15 +5665,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B141" s="18" t="s">
-        <x:v>314</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2" ht="16.75">
       <x:c r="A142" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B142" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="2:2">
@@ -5731,91 +5681,91 @@
     </x:row>
     <x:row r="145" spans="1:2" ht="16.75">
       <x:c r="A145" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B145" s="32" t="s">
-        <x:v>72</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:2">
       <x:c r="A146" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B146" s="11"/>
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="49" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B147" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" s="46" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B148" s="11"/>
     </x:row>
     <x:row r="149" spans="1:2" s="2" customFormat="1">
       <x:c r="A149" s="46" t="s">
-        <x:v>86</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B149" s="11" t="s">
-        <x:v>158</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:2" s="2" customFormat="1">
       <x:c r="A150" s="46" t="s">
-        <x:v>55</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B150" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2" s="2" customFormat="1">
       <x:c r="A151" s="46" t="s">
-        <x:v>49</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B151" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2" s="2" customFormat="1">
       <x:c r="A152" s="46" t="s">
-        <x:v>188</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B152" s="11" t="s">
-        <x:v>213</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2" s="2" customFormat="1">
       <x:c r="A153" s="46" t="s">
-        <x:v>85</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B153" s="11" t="s">
-        <x:v>214</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2" s="2" customFormat="1">
       <x:c r="A154" s="46" t="s">
-        <x:v>41</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B154" s="11" t="s">
-        <x:v>363</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2" s="2" customFormat="1">
       <x:c r="A155" s="49" t="s">
-        <x:v>348</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B155" s="18" t="s">
-        <x:v>313</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B156" s="11"/>
     </x:row>
@@ -5824,7 +5774,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B157" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:2">
@@ -5832,72 +5782,72 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B158" s="18" t="s">
-        <x:v>278</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2" ht="16.75">
       <x:c r="A159" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B159" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:2" ht="16.75">
       <x:c r="A162" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B162" s="32" t="s">
-        <x:v>317</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2">
       <x:c r="A163" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B163" s="11"/>
     </x:row>
     <x:row r="164" spans="1:2">
       <x:c r="A164" s="49" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B164" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="46" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B165" s="11"/>
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="46" t="s">
-        <x:v>28</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B166" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:2">
       <x:c r="A167" s="46" t="s">
-        <x:v>377</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B167" s="54" t="s">
-        <x:v>397</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:2">
       <x:c r="A168" s="49" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B168" s="18" t="s">
-        <x:v>300</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:2">
       <x:c r="A169" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B169" s="11"/>
     </x:row>
@@ -5906,7 +5856,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B170" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:2">
@@ -5914,75 +5864,75 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B171" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:2" ht="16.75">
       <x:c r="A172" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B172" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:2" ht="16.75">
       <x:c r="A175" s="48" t="s">
-        <x:v>228</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B175" s="32" t="s">
-        <x:v>376</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:2">
       <x:c r="A176" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B176" s="11"/>
     </x:row>
     <x:row r="177" spans="1:2">
       <x:c r="A177" s="49" t="s">
-        <x:v>369</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B177" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:2">
       <x:c r="A178" s="46" t="s">
-        <x:v>324</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B178" s="11"/>
     </x:row>
     <x:row r="179" spans="1:2">
       <x:c r="A179" s="46" t="s">
-        <x:v>53</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B179" s="11" t="s">
-        <x:v>297</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:2">
       <x:c r="A180" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B180" s="11" t="s">
-        <x:v>316</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:2">
       <x:c r="A181" s="49" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B181" s="18" t="s">
-        <x:v>309</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
       <x:c r="A182" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B182" s="11" t="s">
-        <x:v>311</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
@@ -5990,7 +5940,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B183" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:2">
@@ -5998,15 +5948,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B184" s="18" t="s">
-        <x:v>366</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2" ht="16.75">
       <x:c r="A185" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B185" s="14" t="s">
-        <x:v>185</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6021,7 +5971,7 @@
   <x:dimension ref="A1:G150"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
+      <x:selection activeCell="I7" activeCellId="0" sqref="I7:I7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -6036,620 +5986,618 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="16.75">
       <x:c r="A4" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B4" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C4" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D4" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E4" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G4" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" s="2" customFormat="1">
       <x:c r="A5" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B5" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C5" s="35"/>
       <x:c r="D5" s="57" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E5" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F5" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G5" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="35" t="s">
-        <x:v>163</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B6" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C6" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E6" s="35" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F6" s="62" t="s">
-        <x:v>252</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F6" s="61" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G6" s="36" t="s">
-        <x:v>255</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="35" t="s">
-        <x:v>320</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B7" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C7" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E7" s="35" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F7" s="62"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F7" s="61"/>
       <x:c r="G7" s="36" t="s">
-        <x:v>238</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="35" t="s">
-        <x:v>208</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B8" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C8" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E8" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="35"/>
       <x:c r="G8" s="36" t="s">
-        <x:v>377</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="35" t="s">
-        <x:v>153</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B9" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C9" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D9" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E9" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F9" s="35"/>
       <x:c r="G9" s="36" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="35" t="s">
-        <x:v>333</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B10" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C10" s="35"/>
       <x:c r="D10" s="35" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="E10" s="35" t="s">
-        <x:v>331</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="80" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F10" s="35"/>
       <x:c r="G10" s="36" t="s">
-        <x:v>212</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="35" t="s">
-        <x:v>379</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B11" s="35" t="s">
-        <x:v>344</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C11" s="37" t="s">
-        <x:v>359</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D11" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="35" t="s">
-        <x:v>331</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F11" s="35"/>
       <x:c r="G11" s="36" t="s">
-        <x:v>266</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="35" t="s">
-        <x:v>285</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B12" s="35" t="s">
-        <x:v>344</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C12" s="37" t="s">
-        <x:v>345</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D12" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="35" t="s">
-        <x:v>242</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F12" s="35"/>
       <x:c r="G12" s="36" t="s">
-        <x:v>382</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="35" t="s">
-        <x:v>319</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B13" s="35" t="s">
-        <x:v>344</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C13" s="37" t="s">
-        <x:v>345</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="35" t="s">
-        <x:v>242</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F13" s="35"/>
       <x:c r="G13" s="36" t="s">
-        <x:v>161</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="2" customFormat="1">
       <x:c r="A14" s="35" t="s">
-        <x:v>168</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B14" s="57" t="s">
-        <x:v>197</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C14" s="37"/>
       <x:c r="D14" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E14" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F14" s="35"/>
       <x:c r="G14" s="36" t="s">
-        <x:v>270</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="1" customFormat="1">
       <x:c r="A15" s="35" t="s">
-        <x:v>201</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B15" s="35" t="s">
-        <x:v>197</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C15" s="37"/>
       <x:c r="D15" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E15" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F15" s="35"/>
       <x:c r="G15" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" s="2" customFormat="1">
       <x:c r="A16" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B16" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C16" s="37"/>
       <x:c r="D16" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="35"/>
       <x:c r="G16" s="36" t="s">
-        <x:v>365</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" s="6" customFormat="1">
       <x:c r="A17" s="57" t="s">
-        <x:v>70</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B17" s="57" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C17" s="37"/>
       <x:c r="D17" s="57" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="35"/>
       <x:c r="G17" s="60" t="s">
-        <x:v>68</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="16.75">
       <x:c r="A18" s="58" t="s">
-        <x:v>88</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B18" s="58" t="s">
-        <x:v>344</x:v>
-      </x:c>
-      <x:c r="C18" s="61" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="C18" s="38"/>
       <x:c r="D18" s="58" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E18" s="58">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="38"/>
       <x:c r="G18" s="59" t="s">
-        <x:v>117</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="16.75">
       <x:c r="A21" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B21" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C21" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D21" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E21" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F21" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G21" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B22" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C22" s="35"/>
       <x:c r="D22" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E22" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F22" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G22" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="35" t="s">
-        <x:v>222</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B23" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C23" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D23" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E23" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F23" s="35"/>
       <x:c r="G23" s="36" t="s">
-        <x:v>328</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="35" t="s">
-        <x:v>387</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B24" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C24" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D24" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E24" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F24" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G24" s="36" t="s">
-        <x:v>215</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="35" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B25" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C25" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D25" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="35"/>
       <x:c r="F25" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G25" s="36" t="s">
-        <x:v>146</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="35" t="s">
-        <x:v>157</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B26" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C26" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D26" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="35"/>
       <x:c r="F26" s="35"/>
       <x:c r="G26" s="36" t="s">
-        <x:v>323</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="35" t="s">
-        <x:v>160</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B27" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C27" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D27" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="35"/>
       <x:c r="F27" s="35"/>
       <x:c r="G27" s="36" t="s">
-        <x:v>81</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="35" t="s">
-        <x:v>306</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B28" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C28" s="35"/>
       <x:c r="D28" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="35"/>
       <x:c r="F28" s="35"/>
       <x:c r="G28" s="36" t="s">
-        <x:v>378</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="16.75">
       <x:c r="A29" s="38" t="s">
-        <x:v>204</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B29" s="38" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C29" s="39"/>
       <x:c r="D29" s="38" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E29" s="38"/>
       <x:c r="F29" s="38" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G29" s="40" t="s">
-        <x:v>342</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="16.75">
       <x:c r="A32" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B32" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C32" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D32" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E32" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F32" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G32" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" s="2" customFormat="1">
       <x:c r="A33" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C33" s="35"/>
       <x:c r="D33" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E33" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F33" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G33" s="36" t="s">
-        <x:v>73</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B34" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C34" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E34" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F34" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G34" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B35" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C35" s="35"/>
       <x:c r="D35" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E35" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F35" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G35" s="36" t="s">
-        <x:v>199</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" ht="16.75">
@@ -6663,101 +6611,101 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7" ht="16.75">
       <x:c r="A39" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C39" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D39" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E39" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F39" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G39" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" s="2" customFormat="1">
       <x:c r="A40" s="35" t="s">
-        <x:v>67</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B40" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C40" s="35"/>
       <x:c r="D40" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E40" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F40" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G40" s="36" t="s">
-        <x:v>355</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B41" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C41" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D41" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E41" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F41" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G41" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B42" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C42" s="35"/>
       <x:c r="D42" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E42" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F42" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G42" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7" ht="16.75">
@@ -6771,101 +6719,101 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7" ht="16.75">
       <x:c r="A46" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B46" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C46" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D46" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E46" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F46" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G46" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" s="2" customFormat="1">
       <x:c r="A47" s="35" t="s">
-        <x:v>45</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B47" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C47" s="35"/>
       <x:c r="D47" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E47" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F47" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G47" s="36" t="s">
-        <x:v>151</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B48" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C48" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D48" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E48" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F48" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G48" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B49" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C49" s="35"/>
       <x:c r="D49" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E49" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F49" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G49" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="16.75">
@@ -6879,131 +6827,131 @@
     </x:row>
     <x:row r="52" spans="1:3" s="2" customFormat="1">
       <x:c r="A52" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" s="2" customFormat="1" ht="16.75">
       <x:c r="A53" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B53" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C53" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D53" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E53" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F53" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G53" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" s="2" customFormat="1">
       <x:c r="A54" s="35" t="s">
-        <x:v>340</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C54" s="35"/>
       <x:c r="D54" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E54" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F54" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G54" s="36" t="s">
-        <x:v>90</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" s="2" customFormat="1">
       <x:c r="A55" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B55" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C55" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D55" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E55" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F55" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G55" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" s="2" customFormat="1">
       <x:c r="A56" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B56" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C56" s="35"/>
       <x:c r="D56" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E56" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F56" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G56" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" s="2" customFormat="1">
       <x:c r="A57" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B57" s="35"/>
       <x:c r="C57" s="35"/>
       <x:c r="D57" s="35"/>
       <x:c r="E57" s="35"/>
       <x:c r="F57" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G57" s="36" t="s">
-        <x:v>73</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" s="2" customFormat="1">
       <x:c r="A58" s="35" t="s">
-        <x:v>67</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B58" s="35"/>
       <x:c r="C58" s="35"/>
       <x:c r="D58" s="35"/>
       <x:c r="E58" s="35"/>
       <x:c r="F58" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G58" s="36" t="s">
-        <x:v>355</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" s="2" customFormat="1" ht="16.75">
@@ -7018,175 +6966,175 @@
     <x:row r="60" s="2" customFormat="1"/>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="16.75">
       <x:c r="A62" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B62" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C62" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D62" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E62" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F62" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G62" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" s="2" customFormat="1">
       <x:c r="A63" s="35" t="s">
-        <x:v>204</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B63" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C63" s="35"/>
       <x:c r="D63" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E63" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F63" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G63" s="36" t="s">
-        <x:v>342</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B64" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C64" s="35"/>
       <x:c r="D64" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E64" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F64" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G64" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B65" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C65" s="35"/>
       <x:c r="D65" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E65" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F65" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G65" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="35" t="s">
-        <x:v>335</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B66" s="35" t="s">
-        <x:v>344</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C66" s="35" t="s">
-        <x:v>144</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D66" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E66" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F66" s="35"/>
       <x:c r="G66" s="36" t="s">
-        <x:v>78</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7">
       <x:c r="A67" s="35" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B67" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C67" s="35">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D67" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E67" s="35"/>
       <x:c r="F67" s="35"/>
       <x:c r="G67" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7">
       <x:c r="A68" s="35" t="s">
-        <x:v>339</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B68" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C68" s="35">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D68" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E68" s="35"/>
       <x:c r="F68" s="35"/>
       <x:c r="G68" s="36" t="s">
-        <x:v>263</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7">
       <x:c r="A69" s="35" t="s">
-        <x:v>145</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B69" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C69" s="35"/>
       <x:c r="D69" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E69" s="35"/>
       <x:c r="F69" s="35"/>
       <x:c r="G69" s="36" t="s">
-        <x:v>269</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="16.75">
@@ -7200,13 +7148,13 @@
     </x:row>
     <x:row r="72" spans="1:7">
       <x:c r="A72" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D72" s="2"/>
       <x:c r="E72" s="2"/>
@@ -7215,185 +7163,185 @@
     </x:row>
     <x:row r="73" spans="1:7" ht="16.75">
       <x:c r="A73" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B73" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C73" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D73" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E73" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F73" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G73" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" s="2" customFormat="1">
       <x:c r="A74" s="35" t="s">
-        <x:v>387</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B74" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C74" s="35"/>
       <x:c r="D74" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E74" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F74" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G74" s="36" t="s">
-        <x:v>215</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7">
       <x:c r="A75" s="35" t="s">
-        <x:v>332</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B75" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C75" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D75" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E75" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F75" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G75" s="36" t="s">
-        <x:v>360</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7">
       <x:c r="A76" s="35" t="s">
-        <x:v>194</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B76" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C76" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D76" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E76" s="35"/>
       <x:c r="F76" s="35"/>
       <x:c r="G76" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7">
       <x:c r="A77" s="35" t="s">
-        <x:v>182</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B77" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C77" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D77" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E77" s="35"/>
       <x:c r="F77" s="35"/>
       <x:c r="G77" s="36" t="s">
-        <x:v>239</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7">
       <x:c r="A78" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B78" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C78" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D78" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E78" s="35"/>
       <x:c r="F78" s="35"/>
       <x:c r="G78" s="36" t="s">
-        <x:v>234</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7">
       <x:c r="A79" s="35" t="s">
-        <x:v>192</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B79" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C79" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D79" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E79" s="35"/>
       <x:c r="F79" s="35"/>
       <x:c r="G79" s="36" t="s">
-        <x:v>249</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7">
       <x:c r="A80" s="35" t="s">
-        <x:v>187</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B80" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C80" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D80" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E80" s="35"/>
       <x:c r="F80" s="35"/>
       <x:c r="G80" s="36" t="s">
-        <x:v>246</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7">
       <x:c r="A81" s="35" t="s">
-        <x:v>189</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B81" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C81" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D81" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E81" s="35"/>
       <x:c r="F81" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G81" s="36" t="s">
-        <x:v>93</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" ht="16.75">
@@ -7407,13 +7355,13 @@
     </x:row>
     <x:row r="84" spans="1:7">
       <x:c r="A84" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B84" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C84" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D84" s="2"/>
       <x:c r="E84" s="2"/>
@@ -7422,185 +7370,185 @@
     </x:row>
     <x:row r="85" spans="1:7" ht="16.75">
       <x:c r="A85" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B85" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C85" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D85" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E85" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F85" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G85" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:7">
       <x:c r="A86" s="35" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B86" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C86" s="35"/>
       <x:c r="D86" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E86" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F86" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G86" s="36" t="s">
-        <x:v>146</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" s="2" customFormat="1">
       <x:c r="A87" s="35" t="s">
-        <x:v>57</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B87" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C87" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D87" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E87" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F87" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G87" s="36" t="s">
-        <x:v>360</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" s="2" customFormat="1">
       <x:c r="A88" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B88" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C88" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D88" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E88" s="35"/>
       <x:c r="F88" s="35"/>
       <x:c r="G88" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" s="2" customFormat="1">
       <x:c r="A89" s="35" t="s">
-        <x:v>184</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B89" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C89" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D89" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E89" s="35"/>
       <x:c r="F89" s="35"/>
       <x:c r="G89" s="36" t="s">
-        <x:v>239</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:7" s="2" customFormat="1">
       <x:c r="A90" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B90" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C90" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D90" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E90" s="35"/>
       <x:c r="F90" s="35"/>
       <x:c r="G90" s="36" t="s">
-        <x:v>234</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:7">
       <x:c r="A91" s="35" t="s">
-        <x:v>186</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B91" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C91" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D91" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E91" s="35"/>
       <x:c r="F91" s="35"/>
       <x:c r="G91" s="36" t="s">
-        <x:v>249</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7">
       <x:c r="A92" s="35" t="s">
-        <x:v>205</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B92" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C92" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D92" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E92" s="35"/>
       <x:c r="F92" s="35"/>
       <x:c r="G92" s="36" t="s">
-        <x:v>246</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7">
       <x:c r="A93" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B93" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C93" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D93" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E93" s="35"/>
       <x:c r="F93" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G93" s="36" t="s">
-        <x:v>93</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" ht="16.75">
@@ -7614,13 +7562,13 @@
     </x:row>
     <x:row r="96" spans="1:7">
       <x:c r="A96" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B96" s="2" t="s">
-        <x:v>299</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C96" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D96" s="2"/>
       <x:c r="E96" s="2"/>
@@ -7629,84 +7577,84 @@
     </x:row>
     <x:row r="97" spans="1:7" ht="16.75">
       <x:c r="A97" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B97" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C97" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D97" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E97" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F97" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G97" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7">
       <x:c r="A98" s="35" t="s">
-        <x:v>312</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B98" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C98" s="35"/>
       <x:c r="D98" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E98" s="35"/>
       <x:c r="F98" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G98" s="36" t="s">
-        <x:v>87</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7">
       <x:c r="A99" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B99" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C99" s="35"/>
       <x:c r="D99" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E99" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F99" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G99" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7">
       <x:c r="A100" s="35" t="s">
-        <x:v>52</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B100" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C100" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D100" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E100" s="35"/>
       <x:c r="F100" s="35"/>
       <x:c r="G100" s="36" t="s">
-        <x:v>66</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7">
@@ -7756,7 +7704,7 @@
     </x:row>
     <x:row r="106" spans="1:7" ht="16.75">
       <x:c r="A106" s="38" t="s">
-        <x:v>137</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B106" s="38"/>
       <x:c r="C106" s="39"/>
@@ -7767,13 +7715,13 @@
     </x:row>
     <x:row r="108" spans="1:7">
       <x:c r="A108" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B108" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C108" s="2" t="s">
-        <x:v>338</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D108" s="2"/>
       <x:c r="E108" s="2"/>
@@ -7782,88 +7730,88 @@
     </x:row>
     <x:row r="109" spans="1:7" ht="16.75">
       <x:c r="A109" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B109" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C109" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D109" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E109" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F109" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G109" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:7">
       <x:c r="A110" s="35" t="s">
-        <x:v>181</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B110" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C110" s="35"/>
       <x:c r="D110" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E110" s="35"/>
       <x:c r="F110" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G110" s="36" t="s">
-        <x:v>42</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7">
       <x:c r="A111" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B111" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C111" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D111" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E111" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F111" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G111" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7">
       <x:c r="A112" s="35" t="s">
-        <x:v>341</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B112" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C112" s="35"/>
       <x:c r="D112" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E112" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F112" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G112" s="36" t="s">
-        <x:v>199</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7">
@@ -7886,13 +7834,13 @@
     </x:row>
     <x:row r="116" spans="1:7">
       <x:c r="A116" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C116" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D116" s="2"/>
       <x:c r="E116" s="2"/>
@@ -7901,25 +7849,25 @@
     </x:row>
     <x:row r="117" spans="1:7" ht="16.75">
       <x:c r="A117" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B117" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C117" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D117" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E117" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F117" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G117" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" s="2" customFormat="1">
@@ -7933,48 +7881,48 @@
     </x:row>
     <x:row r="119" spans="1:7">
       <x:c r="A119" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B119" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C119" s="35"/>
       <x:c r="D119" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E119" s="35"/>
       <x:c r="F119" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G119" s="36" t="s">
-        <x:v>167</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:7">
       <x:c r="A120" s="35" t="s">
-        <x:v>40</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B120" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C120" s="35">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D120" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E120" s="35"/>
       <x:c r="F120" s="35"/>
       <x:c r="G120" s="36" t="s">
-        <x:v>262</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7">
       <x:c r="A121" s="35" t="s">
-        <x:v>65</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B121" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C121" s="35">
         <x:v>100</x:v>
@@ -7983,15 +7931,15 @@
       <x:c r="E121" s="35"/>
       <x:c r="F121" s="35"/>
       <x:c r="G121" s="36" t="s">
-        <x:v>60</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7">
       <x:c r="A122" s="35" t="s">
-        <x:v>233</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B122" s="35" t="s">
-        <x:v>336</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C122" s="35">
         <x:v>100</x:v>
@@ -8000,7 +7948,7 @@
       <x:c r="E122" s="35"/>
       <x:c r="F122" s="35"/>
       <x:c r="G122" s="36" t="s">
-        <x:v>265</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="16.75">
@@ -8014,13 +7962,13 @@
     </x:row>
     <x:row r="125" spans="1:7">
       <x:c r="A125" s="2" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B125" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C125" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D125" s="2"/>
       <x:c r="E125" s="2"/>
@@ -8029,25 +7977,25 @@
     </x:row>
     <x:row r="126" spans="1:7" ht="16.75">
       <x:c r="A126" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B126" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C126" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D126" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E126" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F126" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G126" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:7">
@@ -8097,7 +8045,7 @@
     </x:row>
     <x:row r="132" spans="1:7" ht="16.75">
       <x:c r="A132" s="38" t="s">
-        <x:v>291</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B132" s="38"/>
       <x:c r="C132" s="39"/>
@@ -8108,13 +8056,13 @@
     </x:row>
     <x:row r="134" spans="1:7">
       <x:c r="A134" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B134" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D134" s="1"/>
       <x:c r="E134" s="1"/>
@@ -8123,25 +8071,25 @@
     </x:row>
     <x:row r="135" spans="1:7" ht="16.75">
       <x:c r="A135" s="41" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B135" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C135" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D135" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E135" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F135" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G135" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7">
@@ -8155,33 +8103,33 @@
     </x:row>
     <x:row r="137" spans="1:7">
       <x:c r="A137" s="35" t="s">
-        <x:v>350</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B137" s="35"/>
       <x:c r="C137" s="35"/>
       <x:c r="D137" s="35"/>
       <x:c r="E137" s="35"/>
       <x:c r="F137" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G137" s="36"/>
     </x:row>
     <x:row r="138" spans="1:7">
       <x:c r="A138" s="35" t="s">
-        <x:v>207</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B138" s="35"/>
       <x:c r="C138" s="35"/>
       <x:c r="D138" s="35"/>
       <x:c r="E138" s="35"/>
       <x:c r="F138" s="35" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G138" s="36"/>
     </x:row>
     <x:row r="139" spans="1:7">
       <x:c r="A139" s="35" t="s">
-        <x:v>210</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B139" s="35"/>
       <x:c r="C139" s="35"/>
@@ -8189,7 +8137,7 @@
       <x:c r="E139" s="35"/>
       <x:c r="F139" s="35"/>
       <x:c r="G139" s="36" t="s">
-        <x:v>329</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7">
@@ -8212,13 +8160,13 @@
     </x:row>
     <x:row r="143" spans="1:7">
       <x:c r="A143" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B143" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D143" s="1"/>
       <x:c r="E143" s="1"/>
@@ -8227,46 +8175,46 @@
     </x:row>
     <x:row r="144" spans="1:7" ht="16.75">
       <x:c r="A144" s="50" t="s">
-        <x:v>236</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B144" s="41" t="s">
-        <x:v>354</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C144" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D144" s="41" t="s">
-        <x:v>383</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E144" s="41" t="s">
-        <x:v>248</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F144" s="41" t="s">
-        <x:v>235</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G144" s="42" t="s">
-        <x:v>230</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7">
       <x:c r="A145" s="51" t="s">
-        <x:v>207</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B145" s="35" t="s">
-        <x:v>241</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C145" s="35"/>
       <x:c r="D145" s="35" t="s">
-        <x:v>384</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E145" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F145" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G145" s="36" t="s">
-        <x:v>211</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7">
